--- a/data/Param_Tasks.xlsx
+++ b/data/Param_Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TRL" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="466">
   <si>
     <t>Определены базовые требования к производству и необходимые изменения в существующем производственном процессе</t>
   </si>
@@ -1410,6 +1410,15 @@
   </si>
   <si>
     <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
+  </si>
+  <si>
+    <t>6 Концепция Международной инженерной конференции «Smart Moto Challenge: design &amp; build» (далее - Конференции). 2 Программа проведения Конференции. 3 Проведение мероприятия (включая трансляционную аппаратуру, видео- и аудиосопровождение мероприятия, аудиозапись, оборудование для синхронного перевода).</t>
+  </si>
+  <si>
+    <t>Определены требуемые компетенции в команде, необходимые для выполнения проекта до уровня зрелости инновационного продукта/технологии к внедрению, равного 8</t>
+  </si>
+  <si>
+    <t>Подтверждено, что проект соответствует направлениям НТР ОАО «РЖД», а также условиям, предъявляемым к их планированию и выполнению</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4271,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,8 +4375,8 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>306</v>
+      <c r="C5" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>312</v>
@@ -4387,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>314</v>
@@ -4401,19 +4410,19 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>463</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -4427,10 +4436,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>79</v>
@@ -4447,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>79</v>
@@ -4467,10 +4476,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>79</v>
@@ -4487,10 +4496,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>79</v>
@@ -4507,10 +4516,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>79</v>
@@ -4521,19 +4530,19 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -4547,10 +4556,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>87</v>
@@ -4567,10 +4576,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>87</v>
@@ -4587,10 +4596,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>87</v>
@@ -4607,10 +4616,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>451</v>
+        <v>327</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>87</v>
@@ -4627,10 +4636,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>87</v>
@@ -4647,10 +4656,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>87</v>
@@ -4661,19 +4670,19 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -4687,10 +4696,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>94</v>
@@ -4707,10 +4716,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>94</v>
@@ -4727,10 +4736,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>94</v>
@@ -4747,10 +4756,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>94</v>
@@ -4767,10 +4776,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>94</v>
@@ -4787,10 +4796,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>337</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>94</v>
@@ -4801,19 +4810,19 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>344</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -4827,10 +4836,10 @@
         <v>344</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>102</v>
@@ -4847,10 +4856,10 @@
         <v>344</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>102</v>
@@ -4867,10 +4876,10 @@
         <v>344</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>102</v>
@@ -4887,10 +4896,10 @@
         <v>344</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>102</v>
@@ -4901,19 +4910,19 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>352</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -4927,10 +4936,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>110</v>
@@ -4947,10 +4956,10 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>110</v>
@@ -4967,10 +4976,10 @@
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>110</v>
@@ -4987,10 +4996,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>353</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>110</v>
@@ -5007,10 +5016,10 @@
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>110</v>
@@ -5021,19 +5030,19 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -5047,10 +5056,10 @@
         <v>360</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>361</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>119</v>
@@ -5067,10 +5076,10 @@
         <v>360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>119</v>
@@ -5087,10 +5096,10 @@
         <v>360</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>119</v>
@@ -5107,10 +5116,10 @@
         <v>360</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>119</v>
@@ -5127,10 +5136,10 @@
         <v>360</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>119</v>
@@ -5147,10 +5156,10 @@
         <v>360</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>119</v>
@@ -5161,19 +5170,19 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -5187,10 +5196,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>127</v>
@@ -5207,10 +5216,10 @@
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>127</v>
@@ -5227,10 +5236,10 @@
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>374</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>127</v>
@@ -5247,10 +5256,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>127</v>
@@ -5267,10 +5276,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>127</v>
@@ -5281,19 +5290,19 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -5307,7 +5316,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>381</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>69</v>
@@ -5327,7 +5336,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>69</v>
@@ -5347,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>69</v>
@@ -5367,7 +5376,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>69</v>
@@ -5387,7 +5396,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>69</v>
@@ -5407,7 +5416,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>69</v>
@@ -5427,7 +5436,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>69</v>
@@ -5436,6 +5445,26 @@
         <v>133</v>
       </c>
       <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/Param_Tasks.xlsx
+++ b/data/Param_Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="TRL" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="269">
   <si>
     <t>Определены базовые требования к производству и необходимые изменения в существующем производственном процессе</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Проведено сегментирование рынка и потенциальных заказчиков/потребителей в отношении их потребительских предпочтений.</t>
   </si>
   <si>
-    <t>Макет изготовлен, есть акт приемки на соответствие ТЗ</t>
-  </si>
-  <si>
     <t>Индивидуальные компоненты системы были протестированы в лабораторном/настольном масштабе</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Подтверждены необходимые компетенции разработчика</t>
   </si>
   <si>
-    <t>Лабораторный образец/Модель изготовлен, есть акт приемки на соответствие ТЗ</t>
-  </si>
-  <si>
     <t>Проведен анализ вариантов получения в распоряжение средств производства</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>Экспериментально подтверждена достижимость ключевых характеристик продукта/технологии и диапазонов их изменения</t>
   </si>
   <si>
-    <t>Техническая спецификация системы готова и достаточна для детального проектирования конечной технологии – для разработки КД с литерой «О2»</t>
-  </si>
-  <si>
     <t>Подготовлена программа и методика испытаний ПФО/мелкосерийного образца в ожидаемых реальных условиях эксплуатации</t>
   </si>
   <si>
@@ -821,10 +812,22 @@
     <t>Физический опытно-промышленный образец (ОПО) изготовлен по РКД, утверждённой ранее, на прототипе производственной линии на производственных мощностях Заказчика/потребителя</t>
   </si>
   <si>
-    <t>Подготовлена программа и методика испытаний полнофункционального опытно-промышленный образца (ПФО ОПО) в полной мере учитывающая требования руководящих документов Заказчика и ГОСТ</t>
-  </si>
-  <si>
     <t>Определены ключевые факторы технологического риска, исследовано их влияние на процесс разработки</t>
+  </si>
+  <si>
+    <t>Макет изготовлен, есть акт приемки и допуска его к испытаниям</t>
+  </si>
+  <si>
+    <t>Лабораторный образец/Модель изготовлен(а), есть акт приемки и допуска его/ее к испытаниям</t>
+  </si>
+  <si>
+    <t>Подготовлена программа и методика испытаний полнофункционального опытно-промышленного образца (ПФО ОПО) в полной мере учитывающая требования руководящих документов Заказчика и ГОСТ</t>
+  </si>
+  <si>
+    <t>Техническая спецификация системы готова и достаточна для детального проектирования конечной технологии – для разработки КД для серийного производства</t>
+  </si>
+  <si>
+    <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы. Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="J11:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1224,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -1246,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1263,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1280,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1297,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1314,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1334,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1351,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1368,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1385,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1399,10 +1402,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1416,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1433,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1450,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1467,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1484,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1501,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1518,10 +1521,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -1535,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -1552,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
@@ -1569,10 +1572,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1586,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -1603,10 +1606,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -1620,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -1637,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1654,10 +1657,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1671,10 +1674,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -1688,7 +1691,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>266</v>
@@ -1705,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -1722,10 +1725,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="2">
         <v>5</v>
@@ -1739,10 +1742,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
@@ -1756,10 +1759,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1773,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -1790,10 +1793,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -1807,10 +1810,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -1824,10 +1827,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -1841,10 +1844,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1858,10 +1861,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -1875,10 +1878,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1919,7 +1922,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1964,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1998,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2032,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2049,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2066,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -2083,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2100,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2117,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -2134,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -2151,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -2168,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2185,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2202,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2219,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -2236,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -2253,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
@@ -2270,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2287,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2304,7 +2307,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2321,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -2338,7 +2341,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2355,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -2372,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -2389,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -2406,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2423,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -2440,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2457,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -2474,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -2491,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2">
         <v>6</v>
@@ -2508,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -2522,10 +2525,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2539,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -2556,10 +2559,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -2573,10 +2576,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -2614,7 +2617,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2625,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2642,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2673,10 +2676,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2690,10 +2693,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2707,10 +2710,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2724,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -2741,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -2758,10 +2761,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2775,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -2792,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2809,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -2826,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2843,10 +2846,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -2860,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -2877,10 +2880,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -2894,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2911,10 +2914,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -2931,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2948,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2965,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -2982,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -2999,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -3016,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -3033,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3050,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -3067,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3084,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -3101,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -3115,10 +3118,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3132,10 +3135,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -3149,10 +3152,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -3166,10 +3169,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -3183,10 +3186,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3200,10 +3203,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -3217,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
@@ -3234,10 +3237,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -3251,10 +3254,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2">
         <v>5</v>
@@ -3268,10 +3271,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -3285,10 +3288,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -3302,10 +3305,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -3324,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3347,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3355,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3389,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -3406,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3423,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -3440,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -3457,7 +3460,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3474,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3491,7 +3494,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -3542,7 +3545,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -3559,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -3576,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3593,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -3610,7 +3613,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -3627,7 +3630,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -3644,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -3661,7 +3664,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
@@ -3678,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3695,7 +3698,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -3712,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -3729,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -3746,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -3763,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -3780,7 +3783,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
         <v>7</v>
@@ -3794,10 +3797,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3811,10 +3814,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -3828,10 +3831,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -3845,10 +3848,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
@@ -3862,10 +3865,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2">
         <v>5</v>
@@ -3882,7 +3885,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -3899,7 +3902,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -3916,7 +3919,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -3933,7 +3936,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -3950,7 +3953,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -3967,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -3981,10 +3984,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3998,10 +4001,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4015,10 +4018,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -4032,10 +4035,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -4049,10 +4052,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
@@ -4066,10 +4069,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2">
         <v>6</v>
@@ -4083,10 +4086,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2">
         <v>7</v>
@@ -4103,7 +4106,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -4120,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4137,7 +4140,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -4154,7 +4157,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
@@ -4171,7 +4174,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -4188,7 +4191,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
@@ -4205,7 +4208,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4222,7 +4225,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -4239,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
@@ -4256,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D55" s="2">
         <v>4</v>
@@ -4273,7 +4276,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -4290,7 +4293,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D57" s="2">
         <v>6</v>
@@ -4307,7 +4310,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2">
         <v>7</v>
@@ -4324,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D59" s="2">
         <v>8</v>
@@ -4362,7 +4365,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4370,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4387,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -4404,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -4421,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -4438,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4455,10 +4458,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4472,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -4489,10 +4492,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -4506,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
@@ -4523,10 +4526,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -4543,7 +4546,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4560,7 +4563,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -4577,7 +4580,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -4594,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -4611,7 +4614,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -4628,7 +4631,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -4642,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -4659,10 +4662,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -4676,10 +4679,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4693,10 +4696,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -4710,10 +4713,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -4727,10 +4730,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -4747,7 +4750,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4764,7 +4767,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4781,7 +4784,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -4798,7 +4801,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -4815,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
@@ -4832,7 +4835,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4849,7 +4852,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -4866,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -4883,7 +4886,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -4897,10 +4900,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4914,10 +4917,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -4931,10 +4934,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -4948,10 +4951,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -4965,10 +4968,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -4982,10 +4985,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -5002,7 +5005,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5019,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -5036,7 +5039,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -5053,7 +5056,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -5070,7 +5073,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -5087,7 +5090,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5104,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -5121,7 +5124,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -5138,7 +5141,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>

--- a/data/Param_Tasks.xlsx
+++ b/data/Param_Tasks.xlsx
@@ -29,9 +29,6 @@
     <t>Определена архитектура верхнего уровня: взаимодействие с внешними компонентами в системах железнодорожного транспорта</t>
   </si>
   <si>
-    <t>Определено наличие основных компетенций в команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
-  </si>
-  <si>
     <t>Изготовлен макетный образец и продемонстрированы его ключевые характеристики</t>
   </si>
   <si>
@@ -47,30 +44,12 @@
     <t>Прототипы материалов, оборудования, контрольных приборов и квалификация персонала продемонстрированы в реальных условиях. Предварительно определены характеристики производства</t>
   </si>
   <si>
-    <t>Определен окончательный состав производственной линии. Обеспечены надежные поставки, обновлена модель цены. Отработан предварительно эффект масштаба производства</t>
-  </si>
-  <si>
-    <t>Уточнены/Доработаны производственные процессы для производства конечного продукта/технологии</t>
-  </si>
-  <si>
-    <t>Проведена подготовка к серийному производству. Создана производственная линия для выпуска промышленных партий продукта/образца</t>
-  </si>
-  <si>
     <t>Зафиксирована конфигурация, обеспечена доступность критических технологий и компонентов</t>
   </si>
   <si>
-    <t>Функциональные/технические риски сняты</t>
-  </si>
-  <si>
     <t>Определен бизнес- процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
   </si>
   <si>
-    <t>Проведен анализ реализуемости проекта. Заказчик подтвердил достаточность функционала продукта</t>
-  </si>
-  <si>
-    <t>Реализованы меры по снижению рисков. Оценены требования к сервисной поддержке, необходимому расширению компетенций персонала</t>
-  </si>
-  <si>
     <t>Подготовлен план вывода продукта на производство. Приняты решения по поддержке продукта, обучению персонала</t>
   </si>
   <si>
@@ -80,21 +59,6 @@
     <t>Поддержка производства, сервиса, снижение издержек</t>
   </si>
   <si>
-    <t>Выявлены предпочтения потенциальных потребителей в отношении характеристик, сроков появления на рынке и цены создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Разработана бизнес-модель. Определена конкурентноспособная цена. Показана положительная маржинальность коммерциализации создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Уточнена бизнес-модель и сделанные ранее оценки прибыльности от коммерциализации создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Осуществлен предварительный вывод продукта/технологии на рынок</t>
-  </si>
-  <si>
-    <t>Осуществлен вывод созданного продукта/технологии на рынок</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -107,681 +71,27 @@
     <t>Task_Comments</t>
   </si>
   <si>
-    <t>Проведен обзор технической и маркетинговой литературы по теме. Подтверждены научные принципы и востребованность нового продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определены дополнительные требования к производству, которые предъявляет новая технология/продукт</t>
-  </si>
-  <si>
-    <t>Определено как система в целом будет решать поставленные Заказчиком задачи</t>
-  </si>
-  <si>
-    <t>Определены требуемые и доступные ресурсы</t>
-  </si>
-  <si>
-    <t>Сформулировано предварительное техническое задание на макет</t>
-  </si>
-  <si>
-    <t>Предложено решение по утилизации отходов (перечень отходов, масштабы)</t>
-  </si>
-  <si>
-    <t>Определена общая структура системы</t>
-  </si>
-  <si>
-    <t>Составлен и согласован с Заказчиком перечень разрабатываемой документации</t>
-  </si>
-  <si>
-    <t>Определена команда проекта, включая руководителя, разработчиков, тестировщиков, технических писателей и т.д.</t>
-  </si>
-  <si>
-    <t>Определены потенциальные контрагенты, обсуждены базовые условия сотрудничества</t>
-  </si>
-  <si>
-    <t>Проведено сегментирование рынка и потенциальных заказчиков/потребителей в отношении их потребительских предпочтений.</t>
-  </si>
-  <si>
-    <t>Индивидуальные компоненты системы были протестированы в лабораторном/настольном масштабе</t>
-  </si>
-  <si>
-    <t>Анализ наличия базовых средств производства и технологий у потенциального производителя</t>
-  </si>
-  <si>
-    <t>Подтверждена приемлемость сроков и бюджетов монтажных работ (при необходимости)</t>
-  </si>
-  <si>
-    <t>Сформулированы дополнительные требования к макету</t>
-  </si>
-  <si>
-    <t>Принято решение: изготовление/покупка/аутсорсинг</t>
-  </si>
-  <si>
-    <t>Подтверждены необходимые компетенции разработчика</t>
-  </si>
-  <si>
-    <t>Проведен анализ вариантов получения в распоряжение средств производства</t>
-  </si>
-  <si>
-    <t>Технологический процесса производства предварительно согласован с Заказчиком</t>
-  </si>
-  <si>
-    <t>С Заказчиком согласовано базовое описание функций и структуры для интеграции в финальную систему</t>
-  </si>
-  <si>
-    <t>Подтверждено наличие базовых средств производства у исполнителя/субподрядчика. Решен вопрос по недостающим мощностям</t>
-  </si>
-  <si>
-    <t>Определены кандидаты на поставку материалов и компонентов</t>
-  </si>
-  <si>
-    <t>Начато формирование программы продвижения нового продукта/технологии на рынок</t>
-  </si>
-  <si>
-    <t>Изготовлен экспериментальный образец в масштабе близком к реальному по полупромышленной технологии</t>
-  </si>
-  <si>
-    <t>Основные компоненты разрабатываемой технологии/продукта интегрированы между собой</t>
-  </si>
-  <si>
-    <t>Проведено предварительное планирование и бюджетирование масштабирования производства</t>
-  </si>
-  <si>
-    <t>Определены эксплуатационные характеристики технологии/продукта и требования к ним</t>
-  </si>
-  <si>
-    <t>Отработаны технологические режимы и организовано полупромышленное изготовление компонентов</t>
-  </si>
-  <si>
-    <t>Определены базовые поставщики и условия поставки</t>
-  </si>
-  <si>
-    <t>Созданы компоненты технологии/продукта в реальном масштабе</t>
-  </si>
-  <si>
-    <t>Основные технологические компоненты интегрированы</t>
-  </si>
-  <si>
-    <t>Создана маршрутная технология производства технологии/продукта</t>
-  </si>
-  <si>
-    <t>Определён объём выпуска продукта/технологии</t>
-  </si>
-  <si>
-    <t>Технология производства (масштабирования) проверена на пилотной производственной линии</t>
-  </si>
-  <si>
-    <t>Проведена внутренняя предсертификация</t>
-  </si>
-  <si>
-    <t>Обоснована стратегия надежных поставок и ценовой политики</t>
-  </si>
-  <si>
-    <t>Начаты разработка учебных планов и программ по обучению персонала</t>
-  </si>
-  <si>
-    <t>Уточнена разработанная на предыдущем уровне бизнес-модель (по Остервальдеру) как концепция компании, направленная на получение дохода</t>
-  </si>
-  <si>
-    <t>Уточнена прибыль от коммерциализации создаваемого продукта/технологии по уточненным сегментам рынка и перспективным способам применения</t>
-  </si>
-  <si>
-    <t>Существует физический экземпляр испытательного стенда на площадке Заказчика/потребителя для проверки функционала продукта/технологии в составе ОПО</t>
-  </si>
-  <si>
-    <t>Определена производительность прототипа производственной линии</t>
-  </si>
-  <si>
-    <t>Созданы чертежи 3D-дизайна ОПО технологии/продукта в реальном масштабе. Разработана схема технологического процесса/Схема автоматизации</t>
-  </si>
-  <si>
-    <t>По результатам проведенных испытаний уточнена спецификация на продукт/технологию как систему</t>
-  </si>
-  <si>
-    <t>Изданы организационно-распорядительные документы для проведения испытаний ОПО. Испытания обеспечены квалифицированными кадрами</t>
-  </si>
-  <si>
-    <t>Подтверждено, что уровень команды соответствует сложности и статусу проекта</t>
-  </si>
-  <si>
-    <t>Разработана модель продвижения и послепродажного обслуживания</t>
-  </si>
-  <si>
-    <t>Определены/зафиксированы эксплуатационные характеристики технологии/продукта и требования к ним</t>
-  </si>
-  <si>
-    <t>Определен и подтвержден объем промышленного выпуска продукта/технологии на производственной линии</t>
-  </si>
-  <si>
-    <t>Закончены все необходимые строительно-монтажные и пуско-наладочные работы</t>
-  </si>
-  <si>
-    <t>Дизайн и форма продукта/технологии соответствуют конечной системе</t>
-  </si>
-  <si>
-    <t>Разработана РКД для организации серийного выпуска продукта/технологии в соответствии со стандартами</t>
-  </si>
-  <si>
-    <t>Реализуется программа обучения специалистов Заказчика</t>
-  </si>
-  <si>
-    <t>Организована система сопровождения продукта: претензии, консультации заказчика, поддержка пользователей</t>
-  </si>
-  <si>
-    <t>Протестирована модель продвижения и послепродажного обслуживания. Начата реализация маркетингового плана</t>
-  </si>
-  <si>
-    <t>Разработан регламент выявления дефектов  и их устранения в производстве</t>
-  </si>
-  <si>
-    <t>Конструкторская документации корректируется по ранее утвержденному регламенту внесения изменений</t>
-  </si>
-  <si>
-    <t>Внедрены и описаны регулярные бизнес-процессы производства и модернизации продукта</t>
-  </si>
-  <si>
-    <t>Организационно-штатная структура изготовителя приведена в соответствие с бизнес-моделью</t>
-  </si>
-  <si>
-    <t>Подтверждено наличие бюджета для производства, продаж, маркетинга, сервиса</t>
-  </si>
-  <si>
-    <t>На основе анализа ключевых характеристик продукта/технологии, обеспечивающих конкурентные преимущества, определены основные потребительские характеристики нового продукта/технологии</t>
-  </si>
-  <si>
-    <t>Проведена оценка совместимости по логическим и физическим параметрам (в том числе по производительности, процессам, материалам, методам производства, весу, надежности и пр.) с финальной системой</t>
-  </si>
-  <si>
-    <t>Установлена обратная связь с потенциальными потребителями, выявлены их предпочтения  в части характеристик продукта/технологии, сроков появления продукта/технологии на рынке и его цены</t>
-  </si>
-  <si>
-    <t>Подсистемы модели, состоящие из нескольких компонентов, протестированы в лабораторных/настольных масштабах с использованием имитаторов внешней среды/систем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработана ведомость эскизного/технического проекта и чертёж общего вида/функциональная схема </t>
-  </si>
-  <si>
-    <t>Сделана предварительная оценка прибыли, которая может быть получена в случае производства и реализации разрабатываемой технологии/продукта по выбранным перспективным способам применения</t>
-  </si>
-  <si>
-    <t>Создан прототип технологической линии для выпуска единичных образцов. Согласована конфигурация оборудования, спецификация материалов, баланс материалов согласован с Заказчиком. Продемонстрирована работоспособность прототипа технологической линии</t>
-  </si>
-  <si>
-    <t>Физический образец ПФО изготовлен по РКД, утверждённой ранее, на созданной производственной линии на производственных мощностях Заказчика/потребителя. Характеристики ПФО соответствуют ТЗ</t>
-  </si>
-  <si>
-    <t>Проводятся эксплуатационные испытания в реальных условиях эксплуатации, результаты соответствуют требованиям к продукту/технологии и его эксплуатационным характеристикам</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>С учетом существующих в области железнодорожного транспорта и на рынке продуктов/технологий сформулирована концепция нового продукта/технологии, в т.ч. ожидаемая выгода для Заказчика и возможных потребителей нового продукта/технологии</t>
-  </si>
-  <si>
-    <t>Сформулирована технологическая концепция нового продукта/технологии</t>
-  </si>
-  <si>
-    <t>Выбраны и описаны критические элементы технологии, необходимые для конечного применения</t>
-  </si>
-  <si>
-    <t>Сформулировано техническое предложение, предложены варианты предполагаемого практического использования, дана их сравнительная характеристика</t>
-  </si>
-  <si>
-    <t>Подготовлена программа и методика испытаний: перечень процедур и диапазон базовых измеряемых параметров</t>
-  </si>
-  <si>
-    <t>Представитель Заказчика принял результаты тестирования как достоверные и подтвердил заинтересованность в продукте. Методики тестирования и результаты тестирования одобрены группой отраслевых экспертов.</t>
-  </si>
-  <si>
-    <t>Результаты тестирования модели в расширенном диапазоне параметров соответствуют ТЗ и одобрены Заказчиком.</t>
-  </si>
-  <si>
-    <t>Изготовлен испытательный стенд для проведения испытания расширенного набора функций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Программа и методика испытаний (ПМИ) расширенного набора функций экспериментального образца в лабораторной среде с моделированием основных внешних условий (интерфейс с внешним окружением) согласованы с Заказчиком. </t>
-  </si>
-  <si>
-    <t>Проведены испытания экспериментального образца. Результаты испытаний согласуются с требованиями ПМИ. Результаты одобрены Заказчиком.</t>
-  </si>
-  <si>
     <t>Подтверждена выполнимость всех характеристик во внешних условиях, соответствующих финальному применению.</t>
   </si>
   <si>
-    <t>Подготовлена ПМИ полнофункционального образца в условиях моделируемой внешней среды</t>
-  </si>
-  <si>
-    <t>Изготовлен лабораторный испытательный стенд для проведения испытаний полнофункционального образца</t>
-  </si>
-  <si>
-    <t>Испытания проведены в лабораторной среде, получены требуемые по заданию характеристики с высокой точностью и достоверностью, подтверждены рабочие характеристики в условиях, моделирующих реальные условия. Результаты испытаний согласуются с требованиями методики. Результаты испытаний одобрены Заказчиком.</t>
-  </si>
-  <si>
-    <t>Испытания ПФО ОПО на стенде подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Обосновано, что технические риски в основном сняты. Результаты испытаний одобрены Заказчиком</t>
-  </si>
-  <si>
-    <t>Экспериментально подтверждена достижимость ключевых характеристик продукта/технологии и диапазонов их изменения</t>
-  </si>
-  <si>
-    <t>Подготовлена программа и методика испытаний ПФО/мелкосерийного образца в ожидаемых реальных условиях эксплуатации</t>
-  </si>
-  <si>
-    <t>Испытания ПФО на стенде/в реальных условиях подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Обосновано, что технические риски сняты. Экспериментально подтверждены критические характеристики, которые обеспечивают ключевые преимущества</t>
-  </si>
-  <si>
     <t>Сформулированы окончательные требования к продукту/технологии по безопасности, совместимости, взаимозаменяемости и пр.</t>
   </si>
   <si>
-    <t>Выявленные в ходе испытаний/эксплуатации дефекты оперативно устраняются</t>
-  </si>
-  <si>
-    <t>Для улучшения продукта/технологии уточняются требования к технологии/продукту/услуге и её/его компонентам/системам/подсистемам/элементам</t>
-  </si>
-  <si>
-    <t>Оценен масштаб изменений в производственном процессе для выпуска нового продукта/новой технологии</t>
-  </si>
-  <si>
-    <t>Оценена экономическая целесообразность внесения таких изменений</t>
-  </si>
-  <si>
-    <t>Представлено описание объектов промышленной/производственной инфраструктуры и/или производственных мощностей, которые необходимы для промышленной реализации результатов</t>
-  </si>
-  <si>
-    <t>Принято решение о собственном производстве или заказе на основе анализа возможных вариантов</t>
-  </si>
-  <si>
-    <t>Подтверждено соответствие разрабатываемой технологии/продукта применяемым потенциальным производителем стандартам</t>
-  </si>
-  <si>
-    <t>Проверено наличие базовых средств производства у производителя/субподрядчика. Решение вопроса по недостающим мощностям</t>
-  </si>
-  <si>
-    <t>Определены поставщики и условия поставки</t>
-  </si>
-  <si>
-    <t>Определены сроки готовности мелкосерийного производства</t>
-  </si>
-  <si>
-    <t>Завершено определение возможности модификации существующего/приобретения недостающего оборудования</t>
-  </si>
-  <si>
-    <t>Выбраны оптимальные поставщики и условия поставки. Определены поставщики критических компонентов</t>
-  </si>
-  <si>
-    <t>Методы и производственные процессы в целом доработаны по результатам анализа результатов испытаний экспериментального образца и обоснованы для создания прототипа производственной линии</t>
-  </si>
-  <si>
-    <t>Модифицированы сборочная линия, методы и инструменты, процессы, оборудование по результатам испытаний полнофункционального образца. Подготовлен прототип технологической линии</t>
-  </si>
-  <si>
-    <t>Система поставок сформирована по номенклатуре и объему на основе протоколов о намерении</t>
-  </si>
-  <si>
-    <t>Разработана рабочая конструкторская документация для организации мелкосерийного производства</t>
-  </si>
-  <si>
-    <t>Уточнена промышленная технология как последовательность выполнения производственных процессов, сроки выполнения производственных процессов, а также требуемые материалы/комплектующие для их выполнения и их обеспеченность</t>
-  </si>
-  <si>
-    <t>Доработаны методы и основные производственные процессы. Технология производства оптимизирована под выбранные сегменты рынка</t>
-  </si>
-  <si>
-    <t>Подтверждена обеспеченность всеми видами ресурсов маршрутная технология производства продукта/технологии</t>
-  </si>
-  <si>
-    <t>Все необходимые материалы, оборудование и оснастка сертифицированы</t>
-  </si>
-  <si>
-    <t>На производственной линии осуществлен выпуск продукта/технологии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определены потребности в материалах и оборудовании для производства продукта/технологии, выбраны поставщики, составлен план закупок и заключены договора для обеспечения выпуска опытных образцов. Проверены каналы взаимодействия с поставщиками материалов и оборудования </t>
-  </si>
-  <si>
-    <t>Продемонстрировано полномасштабное производство. Продукт/технология выпускается серийно</t>
-  </si>
-  <si>
-    <t>Внедрена система управления качеством (например, ISO 9000)</t>
-  </si>
-  <si>
-    <t>Осуществляются бесперебойные поставки материалов и оборудования. Сняты критические риски производства (например, эксклюзивные поставщики и т.д.п.)</t>
-  </si>
-  <si>
-    <t>Производственные процессы и технологии обеспечивают необходимый уровень производительности и прибыльности. При необходимости производится масштабирование производства</t>
-  </si>
-  <si>
-    <t>Определены компоненты и связи между компонентами внутри продукта и с внешними устройствами/пользователем</t>
-  </si>
-  <si>
-    <t>Определено какие интерфейсы и сервисы продукт будет предоставлять наружу</t>
-  </si>
-  <si>
     <t>Разработаны предварительные интерфейсы взаимодействия с внешними системами железнодорожного транспорта, определен минимально необходимый объем функций</t>
   </si>
   <si>
-    <t>На основе анализа воздействия продукта на архитектуру и процессы конечной системы подтверждена целесообразность разработки</t>
-  </si>
-  <si>
-    <t>Определен минимально необходимый объем функций продукта</t>
-  </si>
-  <si>
-    <t>Уточнены интерфейсы взаимодействия с системой Заказчика</t>
-  </si>
-  <si>
     <t>Проверена совместимость макета с системами железнодорожного транспорта по базовым функциям</t>
   </si>
   <si>
-    <t>Определен состав базовых нормативных документов и требований к испытаниям, сертификации</t>
-  </si>
-  <si>
     <t>Свойства и интерфейс продукта/технологии определены и согласованы для анализа его интеграции в систему</t>
   </si>
   <si>
-    <t>Свойства и интерфейсы продукта/технологии определены и согласованы с Заказчиком для анализа его интеграции в финальную систему</t>
-  </si>
-  <si>
-    <t>Проведены сопоставление, анализ соответствия и доработка свойств продукта/технологии (если требуется)</t>
-  </si>
-  <si>
-    <t>Проработаны вопросы техники безопасности, экологии</t>
-  </si>
-  <si>
-    <t>Подготовлены проекты концептуальных конструкций конечного образца продукта/технологии (описание системы, диаграммы технологического процесса, чертежи общей компоновки и баланс материала)</t>
-  </si>
-  <si>
-    <t>Сформулированы требования на проведение испытаний, обеспечивающих прохождение базовой сертификации</t>
-  </si>
-  <si>
-    <t>Разработана технологическая документация для производства/масштабирования</t>
-  </si>
-  <si>
-    <t>Разработана спецификация и техническая документация на полнофункциональный образец</t>
-  </si>
-  <si>
-    <t>Подробные чертежи 3D-дизайна и P &amp; ID были завершены для поддержки спецификации инженерно-испытательной системы</t>
-  </si>
-  <si>
-    <t>Подготовлен проект описания и руководство пользователей</t>
-  </si>
-  <si>
-    <t>Разработка технологии завершена, технические риски сняты</t>
-  </si>
-  <si>
-    <t>Определена процедура постадийной разработки технической документации</t>
-  </si>
-  <si>
-    <t>Подготовлено описание и руководство пользователей</t>
-  </si>
-  <si>
-    <t>Опытно-промышленный образец испытан в составе финальной системы Заказчика/пользователя. Проведена корректировка конструкторской документации</t>
-  </si>
-  <si>
-    <t>Определены требования к проведению испытаний ОПО. ПМИ отражают весь объем испытаний по функциям, интерфейсу с внешними устройствами, внешними условиями, необходимой и достаточной их комбинацией, а также предоставляют процедуры для точности и достоверности интерпретации полученных результатов</t>
-  </si>
-  <si>
-    <t>Полнофункциональный образец испытан в составе финальной системы Заказчика/пользователя. Проведен корректировка конструкторской документации</t>
-  </si>
-  <si>
-    <t>Представлена конфигурация оборудования для создания производственной линии для выпуска продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определены требования к испытанию ПФО. ПМИ для проведения испытаний удовлетворяют требованиям Заказчика/ГОСТ по полноте и объему проведения испытаний</t>
-  </si>
-  <si>
-    <t>По результатам проведенных испытаний уточнена спецификация на продукт/технологи как систему</t>
-  </si>
-  <si>
-    <t>Выпущен полный комплект конструкторской и эксплуатационной документации. Инженерные доработки ограничиваются улучшением качества и себестоимости.</t>
-  </si>
-  <si>
-    <t>Выпущен полный комплект эксплуатационной документации</t>
-  </si>
-  <si>
-    <t>Инженерные работы и доработки направлены на улучшение качества и снижение себестоимости</t>
-  </si>
-  <si>
-    <t>Определены требуемые компетенции в команде, необходимые для выполнения проекта до уровня зрелости инновационного продукта/технологии к внедрению в ОАО «РЖД», равного 3</t>
-  </si>
-  <si>
-    <t>Подтвержден научно-технический задел команды разработчиков по тематике проекта</t>
-  </si>
-  <si>
-    <t>Проведено обоснование основных технико-экономических показателей для выполнения проекта до уровня зрелости инновационного продукта/технологии к внедрению в ОАО «РЖД», равного 3</t>
-  </si>
-  <si>
-    <t>Разработан рабочий план (задачи, мероприятия, соответствующая инфраструктура, средства демонстрации и их доступность, ресурсы)</t>
-  </si>
-  <si>
-    <t>Определен перечень вовлеченных отделов организации-исполнителя</t>
-  </si>
-  <si>
-    <t>Согласованы условия совместной работы/использования результатов. Установлен интерес и налажена коммуникация покупатель/пользователь/стейкхолдер</t>
-  </si>
-  <si>
-    <t>Условия взаимодействия легализованы и оформлены в виде соглашений/договоров/протоколов</t>
-  </si>
-  <si>
-    <t>Проведена проверка вариантов предполагаемого практического использования продукта/технологии, представленных в техническом предложении, на патентную чистоту и конкурентоспособность</t>
-  </si>
-  <si>
-    <t>Проведен анализ наличия базовых средств производства у исполнителя/потенциального производителя</t>
-  </si>
-  <si>
-    <t>Подготовлены проекты базовых соглашений с партнерами по конкретизации условий сотрудничества</t>
-  </si>
-  <si>
-    <t>Подготовлен проект технического плана развития до стадии коммерциализации и внедрения</t>
-  </si>
-  <si>
-    <t>Подготовлен проект финансового плана, определены основные финансовые показатели</t>
-  </si>
-  <si>
-    <t>Согласованы базовые соглашения с партнерами по конкретизации условий сотрудничества</t>
-  </si>
-  <si>
-    <t>Подготовлен организационный план до стадии внедрения и коммерциализации</t>
-  </si>
-  <si>
-    <t>Подготовлен финансовый план, определены основные финансовые показатели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заявки на базовые РИД поданы в патентное ведомство </t>
-  </si>
-  <si>
-    <t>Подтверждено, что продукт отвечает запросам Заказчика и других потребителей. Подготовлена модель оценки затрат на производство</t>
-  </si>
-  <si>
-    <t>Определены возможности модификации существующего/приобретения недостающего оборудования</t>
-  </si>
-  <si>
-    <t>С учетом испытаний полномасштабного образца уточнены финансовый план и основные финансовые показатели</t>
-  </si>
-  <si>
-    <t>Объем и состав используемых технологических платформ и процессов согласованы с Заказчиком/Потребителем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модифицирован план и программа выпуска продукта (сборочная линия, методы и инструменты, процессы, материалы, оборудование, ПО) в соответствии с результатами испытаний полнофункционального образца. </t>
-  </si>
-  <si>
-    <t>С учетом испытаний полнофункционального образца уточнены финансовый план и основные финансовые показатели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подтверждена патентная чистота продукта/технологии. Оформлены необходимые Ноу-Хау. Поданы заявки на охрану вспомогательных РИД </t>
-  </si>
-  <si>
-    <t>Отсутствуют риски невыполнения проекта в установленные сроки. Заказчик готов провести испытания опытно-промышленного образца в своей системе</t>
-  </si>
-  <si>
-    <t>Проведён анализ выполнения календарного плана проекта в системе управления проектами, принятым у разработчиков, который показал, что отсутствуют риски несвоевременного выполнения проекта – уточнена декомпозиция работ уточнены сроки, все работы обеспечены ресурсами</t>
-  </si>
-  <si>
-    <t>Заключены долгосрочные соглашения с партнерами и поставщиками материалов, комплектующих и оборудования для гарантии стабильных поставок</t>
-  </si>
-  <si>
-    <t>Осуществляется комплекс мероприятий по общению с ЛПР компаний-потенциальных потребителей</t>
-  </si>
-  <si>
-    <t>Заказчик подтвердил готовность организовать проведение испытаний, измерений и обработку результатов</t>
-  </si>
-  <si>
-    <t>Подтверждено, что отсутствуют риски, связанные с интеллектуальной собственностью</t>
-  </si>
-  <si>
-    <t>Все производственные КД для создания полнофункционального образца согласованы изготовителем (промышленным) и Заказчиком</t>
-  </si>
-  <si>
-    <t>Все технологические процессы изготовления ПФО обеспечены подготовленным персоналом. Проведено обучение и сертификация персонала</t>
-  </si>
-  <si>
-    <t>Организованы процедуры контроля безотказной работы и анализа авариных ситуаций и сбоев</t>
-  </si>
-  <si>
-    <t>Проведены процедуры добровольной сертификации</t>
-  </si>
-  <si>
-    <t>Внедрены и описаны регулярные бизнес-процессы сервиса</t>
-  </si>
-  <si>
-    <t>Внедрены и описаны регулярные бизнес-процессы продаж</t>
-  </si>
-  <si>
-    <t>Организовано проведение регулярных эксплуатационных испытаний</t>
-  </si>
-  <si>
-    <t>Утвержден регламент выявления и устранения дефектов в ходе промышленной эксплуатации</t>
-  </si>
-  <si>
-    <t>Вся КД утверждена изготовителем</t>
-  </si>
-  <si>
-    <t>Завершена сертификация продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определены потенциальные потребители продукта/технологии. Оценен общий потенциал рынка (PAM)</t>
-  </si>
-  <si>
-    <t>Определен перечень потребителей, способных платить за разрабатываемую технологию/использование результатов/услуг/продуктов</t>
-  </si>
-  <si>
-    <t>Проведен анализ конкурентов (цены, объемы, сильные/слабые стороны)</t>
-  </si>
-  <si>
-    <t>Проведена оценка вероятности положительного денежного потока от реализации результатов проекта в долгосрочной и среднесрочной перспективах</t>
-  </si>
-  <si>
-    <t>Получена оценка рынка PAM (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном  и стоимостном выражениях</t>
-  </si>
-  <si>
-    <t>Уточнен и сегментирован целевой рынок (TAM ), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/технологией</t>
-  </si>
-  <si>
-    <t>Проведены предварительные маркетинговые исследования, свидетельствующие о востребованности предложенного технического решения потенциальными потребителями продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определены аналоги продукта/технологии и их производители, а также уровень их технологической готовности, в т.ч. его динамика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сделан предварительный прогноз совокупных затрат, с которыми связано использование продукта/технологии на протяжении всего срока его эксплуатации (стоимость единицы продукта, стоимость развертывания и обслуживания, стоимость утилизации и т.д.п.). Показано, что полная стоимость владения продуктом/технологией приемлема для потенциальных потребителей </t>
-  </si>
-  <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка TAM  – объем рынка для клиентов на целевом рынке, которые нуждаются (не обязательно могут себе это позволить) в продуктах или услугах, находящихся в той же категории продуктов/услуг, что и разрабатываемый продукт/технология</t>
-  </si>
-  <si>
-    <t>Уточнены предварительные маркетинговые исследования. Определены проблемы потребителей, которые не могут быть решены существующими на рынке продуктами/технологиями</t>
-  </si>
-  <si>
-    <t>Проведена предварительная упрощенная оценка себестоимости изготовления продукции, показано, что ее величина является приемлемой для выпуска продукта по предложенной промышленной технологии</t>
-  </si>
-  <si>
-    <t>Уточнен прогноз совокупных затрат, с которыми связано использование технологии/продукта/услуги на протяжении срока его использования, включая утилизацию</t>
-  </si>
-  <si>
-    <t>Предложена модель ценообразования</t>
-  </si>
-  <si>
-    <t>Уточнены сегменты рынка TAM, выявлены ниши рынка, на которые целесообразно ориентироваться при разработке технологии/продукта/услуги</t>
-  </si>
-  <si>
-    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAM)</t>
-  </si>
-  <si>
-    <t>Детализирован перечень производителей, продукция которых решает те же проблемы, что и создаваемый продукт/технология. Анализ конкурентов проведен после подтверждения в ходе испытаний лабораторного образца/модели достижимости основных характеристик создаваемого продукта/технологии. Показано, что подтвержденные в ходе испытаний характеристики дают новое качество по сравнению с доступными на рынке продуктами</t>
-  </si>
-  <si>
-    <t>Уточнены способы потребления продукта/технологии и сегменты рынка для каждого способа потребления. Для каждого сегмента рынка проведена адаптация модели ценообразования, причем показано, что стоимость создаваемого продукта/технологии не будет выше стоимости продуктов/технологий-аналогов</t>
-  </si>
-  <si>
-    <t>Установлена обратная связь с потенциальными потребителями, получено подтверждение их заинтересованности в появлении в ранее установленные сроки продукта/технологии с подтвержденными в ходе испытаний характеристиками и уточненной ценой</t>
-  </si>
-  <si>
-    <t>Разработан предварительный план продаж с детализацией по регионам и клиентам</t>
-  </si>
-  <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка SAM - клиентский сегмент или объем рынка (доля от ТАМ), в рамках которых потребитель готов купить продукты или услуги такие же, как разрабатываемый продукт/технология</t>
-  </si>
-  <si>
-    <t>Проведен сравнительный/конкурентный анализ разрабатываемой технологии продукта с конкурентными продуктами</t>
-  </si>
-  <si>
-    <t>Получены отзывы от потенциальных потребителей о полезности продукта с подтвержденными в ходе испытаний экспериментального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности  создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определена бизнес-модель: кто спонсор, кто покупатель B2B, B2C, кто продавец, какова организация поддержки жизненного цикла продукта</t>
-  </si>
-  <si>
-    <t>Уточнена модель ценообразования. Определена конкурентоспособная цена на технологию в соответствии c бизнес-моделью, т.е цена, которая учитывает требования по уровню рентабельности технологии/продукта с учетом конкурентного окружения создаваемого продукта/технологии и отвечает потребностям потребителей</t>
-  </si>
-  <si>
-    <t>Получены отзывы от потенциальных потребителей о полезности продукта с подтвержденными в ходе испытаний полнофункционального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>По результатам анализа результатов испытаний полнофункционального образца и анализа выявленных предпочтений потребителей уточнены критерии сегментирования рынка, обновлены сегменты рынка , а также ниши рынка, на которые целесообразно ориентироваться при разработке продукта/технологии/услуги</t>
-  </si>
-  <si>
     <t>Уточнен и сегментирован целевой рынок (SOM), определен его общий объем</t>
   </si>
   <si>
-    <t>Осуществлена поставка ограниченному кругу потребителей опытной партии продукта/технологии для испытаний</t>
-  </si>
-  <si>
-    <t>Получены отзывы от расширенного круга потенциальных потребителей о полезности продукта с подтвержденными в ходе испытаний полнофункционального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка SOM (Serviceable Obtainable Market)- объем рынка, который производящая продукт/технологию компания намерена и способна занять, учитывая его стратегию развития и действия конкурентов) с учетом выбранных каналов продаж</t>
-  </si>
-  <si>
-    <t>Уточнена основная структура цены продукта/технологии для коммерциализации (производство, комплектующие, продажи, логистика, сервис...)</t>
-  </si>
-  <si>
-    <t>Уточнена бизнес-модель, а также конкретизирована ценовая политика для разных сегментов рынка на основе разработанной ранее модели ценообразования и уточненной бизнес-модели</t>
-  </si>
-  <si>
-    <t>Разработаны прайс-листы и система скидок по сегментам рынка</t>
-  </si>
-  <si>
-    <t>Проведены опытные продажи продукта/технологии по утвержденным каналам распространения в рамках бизнес-модели</t>
-  </si>
-  <si>
-    <t>Получены отзывы от расширенного круга покупателей о полезности продукта/технологии с достигнутыми технико-экономическими характеристиками. Сделан вывод о полезности созданного продукта/технологии</t>
-  </si>
-  <si>
-    <t>Протестированы каналы распространения продукта в различных рыночных сегментах, уточнены прайс-листы, представлены для анализа отчеты о продажах по собственным и партнерским каналам</t>
-  </si>
-  <si>
-    <t>На основе утвержденных регламентов осуществляется мониторинг и анализ рынков, потребителей, конкурирующих продуктов и технологий</t>
-  </si>
-  <si>
-    <t>Утверждена маркетинговая стратегия компании как комплекс мероприятий, направленных на улучшение производства и улучшения продукта/технологии и его/ее сбыта</t>
-  </si>
-  <si>
-    <t>Разработаны процедуры проведения исследования удовлетворённости потенциальных потребителей, на основе анализа которых уточняются требования к продукту/технологии, которые могут быть учтены в текущей версии или разрабатываются требования к новой версии продукта/технологии</t>
-  </si>
-  <si>
-    <t>Сформулирован предварительный план по снижению негативного воздействия технологических рисков</t>
-  </si>
-  <si>
-    <t>Определены области ограничений применения технологии (где применять нецелесообразно или запрещено), в т.ч. законодательные ограничения, рыночные ограничения, научно-технологические ограничения, ограничения, связанные с использованием предшествующей и получаемой интеллектуальной собственностью, экологические ограничения и др.</t>
-  </si>
-  <si>
     <t>Сформулирована фундаментальная концепция технологии и обоснована полезность технологии</t>
   </si>
   <si>
@@ -800,34 +110,724 @@
     <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях реальной эксплуатации в составе конечного продукта</t>
   </si>
   <si>
-    <t>Окончательное подтверждение работоспособности промышленного образца. Разработка функционирующей реальной системы завершена</t>
-  </si>
-  <si>
-    <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
-  </si>
-  <si>
-    <t>Подтверждено, что проект соответствует направлениям НТР ОАО «РЖД», а также условиям, предъявляемым к их планированию и выполнению</t>
-  </si>
-  <si>
-    <t>Физический опытно-промышленный образец (ОПО) изготовлен по РКД, утверждённой ранее, на прототипе производственной линии на производственных мощностях Заказчика/потребителя</t>
-  </si>
-  <si>
-    <t>Определены ключевые факторы технологического риска, исследовано их влияние на процесс разработки</t>
-  </si>
-  <si>
-    <t>Макет изготовлен, есть акт приемки и допуска его к испытаниям</t>
-  </si>
-  <si>
-    <t>Лабораторный образец/Модель изготовлен(а), есть акт приемки и допуска его/ее к испытаниям</t>
-  </si>
-  <si>
-    <t>Подготовлена программа и методика испытаний полнофункционального опытно-промышленного образца (ПФО ОПО) в полной мере учитывающая требования руководящих документов Заказчика и ГОСТ</t>
-  </si>
-  <si>
-    <t>Техническая спецификация системы готова и достаточна для детального проектирования конечной технологии – для разработки КД для серийного производства</t>
-  </si>
-  <si>
     <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы. Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
+  </si>
+  <si>
+    <t>Подтверждена работоспособность промышленного образца. Разработка функционирующей реальной системы завершена</t>
+  </si>
+  <si>
+    <t>Определен окончательный состав производственной линии. Обеспечены надежные поставки, обновлена модель цены. Предварительно отработан эффект масштаба производства</t>
+  </si>
+  <si>
+    <t>Уточнены/доработаны производственные процессы для производства конечного продукта / технологии</t>
+  </si>
+  <si>
+    <t>Проведена подготовка к серийному производству. Создана производственная линия для выпуска промышленных партий продукта/ образца</t>
+  </si>
+  <si>
+    <t>Продемонстрировано полномасштабное производство. Продукт/ технология выпускается серийно</t>
+  </si>
+  <si>
+    <t>Разработка технологии завершена</t>
+  </si>
+  <si>
+    <t>Опытно-промышленный образец испытан в составе финальной системы Владельца продукта. Проведена корректировка конструкторской документации</t>
+  </si>
+  <si>
+    <t>Полнофункциональный образец испытан в составе финальной системы Владельца продукта. Проведена корректировка конструкторской документации</t>
+  </si>
+  <si>
+    <t>Выпущен полный комплект конструкторской и эксплуатационной документации. Инженерные доработки ограничиваются улучшением качества и себестоимости</t>
+  </si>
+  <si>
+    <t>Определено наличие основных компетенций в проектной команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
+  </si>
+  <si>
+    <t>Проведен анализ реализуемости проекта. Потенциальный Владелец продукта (Заказчик) подтвердил достаточность функционала продукта</t>
+  </si>
+  <si>
+    <t>Реализованы мероприятия по воздействию на риски. Оценены требования к сервисной поддержке, необходимому расширению компетенций персонала</t>
+  </si>
+  <si>
+    <t>Подтверждено, что продукт отвечает запросам Владельца продукта и других потребителей (Заказчиков). Подготовлена модель оценки затрат на производство</t>
+  </si>
+  <si>
+    <t>Риски невыполнения проекта в установленные сроки снижены до минимальных значений. Владелец продукта готов провести испытания опытно-промышленного образца в своей системе</t>
+  </si>
+  <si>
+    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики.  Оценен общий потенциал рынка (PAM)</t>
+  </si>
+  <si>
+    <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/ технологией</t>
+  </si>
+  <si>
+    <t>Выявлены предпочтения возможных потребителей (Владельца продукта, других Заказчиков) в отношении характеристик, сроков появления на рынке и цены создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/ технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAM)</t>
+  </si>
+  <si>
+    <t>Разработана бизнес-модель. Определена конкурентно-способная цена. Показана положительная маржинальность коммерциализации создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Уточнена бизнес-модель и сделанные ранее оценки прибыльности от коммерциализации создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Осуществлен предварительный вывод продукта/ технологии на рынок</t>
+  </si>
+  <si>
+    <t>Осуществлен вывод созданного продукта/ технологии на рынок</t>
+  </si>
+  <si>
+    <t>Проведен обзор технической и маркетинговой литературы по теме. Подтверждены научные принципы и востребованность нового продукта/технологии.</t>
+  </si>
+  <si>
+    <t>С учетом существующих в области железнодорожного транспорта и на рынке продуктов/технологий сформулирована концепция нового продукта/технологии, в т.ч. ожидаемая выгода для потенциального Владельца продукта и других возможных потребителей (Заказчиков) нового продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Сформулирована технологическая концепция нового продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Выбраны и описаны критические элементы технологии, необходимые для конечного применения.</t>
+  </si>
+  <si>
+    <t>Сформулировано предварительное техническое задание на макет.</t>
+  </si>
+  <si>
+    <t>Сформулировано техническое предложение, предложены варианты предполагаемого практического использования, дана их сравнительная характеристика.</t>
+  </si>
+  <si>
+    <t>Макет изготовлен, есть акт приемки и допуска его к испытаниям.</t>
+  </si>
+  <si>
+    <t>Подготовлена программа и методика испытаний: перечень процедур и диапазон базовых измеряемых параметров.</t>
+  </si>
+  <si>
+    <t>Индивидуальные компоненты системы были протестированы в лабораторном/настольном масштабе.</t>
+  </si>
+  <si>
+    <t>Представитель потенциального Владельца продукта (Заказчика) принял результаты тестирования как достоверные и подтвердил заинтересованность в продукте. Методики тестирования и результаты тестирования одобрены группой отраслевых экспертов.</t>
+  </si>
+  <si>
+    <t>Лабораторный образец/Модель изготовлен(а), есть акт приемки и допуска его/ее к испытаниям.</t>
+  </si>
+  <si>
+    <t>Подсистемы модели, состоящие из нескольких компонентов, протестированы в лабораторных/настольных масштабах с использованием имитаторов внешней среды/систем.</t>
+  </si>
+  <si>
+    <t>Результаты тестирования модели в расширенном диапазоне параметров соответствуют ТЗ и одобрены Владельцем продукта (Заказчиком).</t>
+  </si>
+  <si>
+    <t>Определены области ограничений применения технологии (где применять нецелесообразно или запрещено), в т.ч. законодательные ограничения, рыночные ограничения, научно-технические и технологические ограничения, ограничения, связанные с использованием предшествующей и получаемой интеллектуальной собственностью, экологические ограничения и др.</t>
+  </si>
+  <si>
+    <t>Изготовлен экспериментальный образец в масштабе близком к реальному по полупромышленной технологии.</t>
+  </si>
+  <si>
+    <t>Основные компоненты разрабатываемой технологии/продукта интегрированы между собой.</t>
+  </si>
+  <si>
+    <t>Изготовлен испытательный стенд для проведения испытания расширенного набора функций.</t>
+  </si>
+  <si>
+    <t>Программа и методика испытаний (ПМИ) расширенного набора функций экспериментального образца в лабораторной среде с моделированием основных внешних условий (интерфейс с внешним окружением) согласованы с Владельцем продукта (Заказчиком).</t>
+  </si>
+  <si>
+    <t>Проведены испытания экспериментального образца. Результаты испытаний согласуются с требованиями ПМИ. Результаты одобрены Владельцем продукта (Заказчиком).</t>
+  </si>
+  <si>
+    <t>Созданы компоненты технологии/продукта в реальном масштабе.</t>
+  </si>
+  <si>
+    <t>Основные технологические компоненты интегрированы.</t>
+  </si>
+  <si>
+    <t>Подготовлена ПМИ полнофункционального образца в условиях моделируемой внешней среды.</t>
+  </si>
+  <si>
+    <t>Изготовлен лабораторный испытательный стенд для проведения испытаний полнофункционального образца.</t>
+  </si>
+  <si>
+    <t>Испытания проведены в лабораторной среде, получены требуемые по заданию характеристики с высокой точностью и достоверностью, подтверждены рабочие характеристики в условиях, моделирующих реальные условия. Результаты испытаний согласуются с требованиями методики. Результаты испытаний одобрены Владельцем продукта (Заказчиком).</t>
+  </si>
+  <si>
+    <t>Опытно-промышленный образец изготовлен по РКД, утверждённой ранее, на прототипе производственной линии на производственных мощностях Владельца продукта (или партнера).</t>
+  </si>
+  <si>
+    <t>Существует экземпляр испытательного стенда на площадке Владельца продукта (или партнера) для проверки функционала продукта/технологии в составе опытно-промышленного образца.</t>
+  </si>
+  <si>
+    <t>Подготовлена программа и методика испытаний опытно-промышленного образца, в полной мере учитывающая требования руководящих документов Владельца продукта и ГОСТ, ГОСТ Р, ПНСТ.</t>
+  </si>
+  <si>
+    <t>Испытания опытно-промышленного образца на стенде подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Результаты испытаний одобрены Владельцем продукта.</t>
+  </si>
+  <si>
+    <t>Экспериментально подтверждена достижимость ключевых характеристик продукта/технологии и диапазонов их изменения.</t>
+  </si>
+  <si>
+    <t>Техническая спецификация системы готова и достаточна для детального проектирования конечной технологии – для разработки КД для серийного производства.</t>
+  </si>
+  <si>
+    <t>Определены/зафиксированы эксплуатационные характеристики технологии/продукта и требования к ним.</t>
+  </si>
+  <si>
+    <t>Полнофункциональный образец изготовлен по РКД, утверждённой ранее, на созданной производственной линии на производственных мощностях Владельца продукта или партнера. Характеристики полнофункционального образца соответствуют ТЗ.</t>
+  </si>
+  <si>
+    <t>Подготовлена программа и методика испытаний полнофункционального мелкосерийного образца в ожидаемых реальных условиях эксплуатации.</t>
+  </si>
+  <si>
+    <t>Испытания полнофункционального образца на стенде/в реальных условиях подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Обосновано, что технические риски снижены до минимальных значений. Экспериментально подтверждены критические характеристики, которые обеспечивают ключевые преимущества.</t>
+  </si>
+  <si>
+    <t>Проводятся эксплуатационные испытания в реальных условиях эксплуатации, результаты соответствуют требованиям к продукту/технологии и его эксплуатационным характеристикам.</t>
+  </si>
+  <si>
+    <t>Выявленные в ходе испытаний/эксплуатации дефекты оперативно устраняются.</t>
+  </si>
+  <si>
+    <t>Для улучшения продукта/технологии уточняются требования к технологии/продукту/услуге и её/его компонентам/системам/ подсистемам/элементам.</t>
+  </si>
+  <si>
+    <t>Определены дополнительные требования к производству, которые предъявляет новая технология/продукт.</t>
+  </si>
+  <si>
+    <t>Оценен масштаб изменений в производственном процессе для выпуска нового продукта/новой технологии.</t>
+  </si>
+  <si>
+    <t>Оценена экономическая целесообразность внесения таких изменений.</t>
+  </si>
+  <si>
+    <t>Требования к производству уточнены на основе конкретных материалов и процессов.</t>
+  </si>
+  <si>
+    <t>Представлено описание объектов промышленной/производственной инфраструктуры и/или производственных мощностей, которые необходимы для промышленной реализации результатов.</t>
+  </si>
+  <si>
+    <t>Предложено решение по утилизации отходов (перечень отходов, масштабы).</t>
+  </si>
+  <si>
+    <t>Анализ наличия базовых средств производства и технологий у потенциального производителя.</t>
+  </si>
+  <si>
+    <t>Принято решение о собственном производстве или заказе на основе анализа возможных вариантов.</t>
+  </si>
+  <si>
+    <t>Подтверждена приемлемость сроков и бюджетов монтажных работ (при необходимости).</t>
+  </si>
+  <si>
+    <t>Подтверждено соответствие разрабатываемой технологии/продукта применяемым потенциальным производителем стандартам.</t>
+  </si>
+  <si>
+    <t>Проверено наличие базовых средств производства у производителя/субподрядчика. Решение вопроса по недостающим мощностям.</t>
+  </si>
+  <si>
+    <t>Определены поставщики и условия поставки.</t>
+  </si>
+  <si>
+    <t>Проведен анализ вариантов получения в распоряжение средств производства.</t>
+  </si>
+  <si>
+    <t>Технологический процесса производства предварительно согласован с Владельцем продукта (Заказчиком).</t>
+  </si>
+  <si>
+    <t>Определены сроки готовности мелкосерийного производства.</t>
+  </si>
+  <si>
+    <t>Завершено определение возможности модификации существующего/приобретения недостающего оборудования.</t>
+  </si>
+  <si>
+    <t>Выбраны оптимальные поставщики и условия поставки. Определены поставщики критических компонентов.</t>
+  </si>
+  <si>
+    <t>Проведено предварительное планирование и бюджетирование масштабирования производства.</t>
+  </si>
+  <si>
+    <t>Определены эксплуатационные характеристики технологии/продукта и требования к ним.</t>
+  </si>
+  <si>
+    <t>Методы и производственные процессы в целом доработаны по результатам анализа результатов испытаний экспериментального образца и обоснованы для создания прототипа производственной линии.</t>
+  </si>
+  <si>
+    <t>Модифицированы сборочная линия, методы и инструменты, процессы, оборудование по результатам испытаний полнофункционального образца. Подготовлен прототип технологической линии.</t>
+  </si>
+  <si>
+    <t>Создана маршрутная технология производства технологии/продукта.</t>
+  </si>
+  <si>
+    <t>Система поставок сформирована по номенклатуре и объему на основе протоколов о намерении.</t>
+  </si>
+  <si>
+    <t>Определён объём выпуска продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Разработана рабочая конструкторская документация для организации мелкосерийного производства.</t>
+  </si>
+  <si>
+    <t>Создан прототип технологической линии для выпуска единичных образцов. Согласована конфигурация оборудования, спецификация материалов, баланс материалов согласован с Владельцем продукта. Продемонстрирована работоспособность прототипа технологической линии.</t>
+  </si>
+  <si>
+    <t>Определена производительность прототипа производственной линии.</t>
+  </si>
+  <si>
+    <t>Уточнена промышленная технология как последовательность выполнения производственных процессов, сроки выполнения производственных процессов, а также требуемые материалы/комплектующие для их выполнения и их обеспеченность.</t>
+  </si>
+  <si>
+    <t>Доработаны методы и основные производственные процессы. Технология производства оптимизирована под выбранные сегменты рынка.</t>
+  </si>
+  <si>
+    <t>Подтверждена обеспеченность всеми видами ресурсов маршрутная технология производства продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Определен и подтвержден объем промышленного выпуска продукта/технологии на производственной линии.</t>
+  </si>
+  <si>
+    <t>Закончены все необходимые строительно-монтажные и пуско-наладочные работы.</t>
+  </si>
+  <si>
+    <t>Все необходимые материалы, оборудование и оснастка сертифицированы.</t>
+  </si>
+  <si>
+    <t>На производственной линии осуществлен выпуск продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Определены потребности в материалах и оборудовании для производства продукта/технологии, выбраны поставщики, составлен план закупок и заключены договора для обеспечения выпуска опытных образцов. Проверены каналы взаимодействия с поставщиками материалов и оборудования.</t>
+  </si>
+  <si>
+    <t>Внедрена система управления качеством (например, ISO 9000).</t>
+  </si>
+  <si>
+    <t>Разработан регламент выявления дефектов  и их устранения в производстве.</t>
+  </si>
+  <si>
+    <t>Осуществляются бесперебойные поставки материалов и оборудования. Снижены до минимальных значений риски производства (например, эксклюзивные поставщики и т.п.)</t>
+  </si>
+  <si>
+    <t>Производственные процессы и технологии обеспечивают необходимый уровень производительности и прибыльности. При необходимости производится масштабирование производства.</t>
+  </si>
+  <si>
+    <t>Определены компоненты и связи между компонентами внутри продукта и с внешними устройствами, c пользователем продукта.</t>
+  </si>
+  <si>
+    <t>Определено, какие интерфейсы и сервисы продукт будет предоставлять наружу.</t>
+  </si>
+  <si>
+    <t>Определено, как система в целом будет решать поставленные Заказчиком задачи.</t>
+  </si>
+  <si>
+    <t>На основе анализа воздействия продукта на архитектуру и процессы конечной системы подтверждена целесообразность разработки.</t>
+  </si>
+  <si>
+    <t>Определен минимально необходимый объем функций продукта.</t>
+  </si>
+  <si>
+    <t>Уточнены интерфейсы взаимодействия с системой потенциального Владельца продукта (Заказчика).</t>
+  </si>
+  <si>
+    <t>Определена общая структура системы.</t>
+  </si>
+  <si>
+    <t>Составлен и согласован с потенциальным Владельцем продукта (Заказчиком) перечень разрабатываемой документации.</t>
+  </si>
+  <si>
+    <t>Проведена оценка совместимости по логическим и физическим параметрам (в том числе по производительности, процессам, материалам, методам производства, весу, надежности и пр.) с финальной системой.</t>
+  </si>
+  <si>
+    <t>Сформулированы дополнительные требования к макету.</t>
+  </si>
+  <si>
+    <t>Определены ключевые факторы технических рисков, исследовано их влияние на процесс разработки.</t>
+  </si>
+  <si>
+    <t>Определен состав базовых нормативных документов и требований к испытаниям, сертификации.</t>
+  </si>
+  <si>
+    <t>Свойства и интерфейсы продукта/технологии определены и согласованы с Владельцем продукта (Заказчиком) для анализа его интеграции в финальную систему.</t>
+  </si>
+  <si>
+    <t>С Владельцем продукта (Заказчиком) согласовано базовое описание функций и структуры для интеграции в финальную систему.</t>
+  </si>
+  <si>
+    <t>Проведены сопоставление, анализ соответствия и доработка свойств продукта/технологии (если требуется).</t>
+  </si>
+  <si>
+    <t>Проработаны вопросы техники безопасности, экологии.</t>
+  </si>
+  <si>
+    <t>Подготовлены проекты концептуальных конструкций конечного образца продукта/технологии (описание системы, диаграммы технологического процесса, чертежи общей компоновки и баланс материала).</t>
+  </si>
+  <si>
+    <t>Сформулированы требования на проведение испытаний, обеспечивающих прохождение базовой сертификации.</t>
+  </si>
+  <si>
+    <t>Разработана ведомость эскизного/технического проекта и чертёж общего вида/функциональная схема.</t>
+  </si>
+  <si>
+    <t>Отработаны технологические режимы и организовано полупромышленное изготовление компонентов.</t>
+  </si>
+  <si>
+    <t>Разработана технологическая документация для производства/масштабирования.</t>
+  </si>
+  <si>
+    <t>Разработана спецификация и техническая документация на полнофункциональный образец.</t>
+  </si>
+  <si>
+    <t>Подробные чертежи 3D-дизайна и P&amp;ID  были завершены для поддержки спецификации инженерно-испытательной системы.</t>
+  </si>
+  <si>
+    <t>Подготовлен проект описания и руководства пользователя.</t>
+  </si>
+  <si>
+    <t>Технология производства (масштабирования) проверена на пилотной производственной линии.</t>
+  </si>
+  <si>
+    <t>Технический риск получения отрицательных результатов исследований снижен до минимальных значений.</t>
+  </si>
+  <si>
+    <t>Проведена внутренняя предсертификация.</t>
+  </si>
+  <si>
+    <t>Определены процедура и порядок разработки технической документации.</t>
+  </si>
+  <si>
+    <t>Подготовлено описание и руководство пользователя.</t>
+  </si>
+  <si>
+    <t>Созданы чертежи 3D-дизайна опытно-промышленного образца продукта в реальном масштабе. Разработана схема технологического процесса/схема автоматизации.</t>
+  </si>
+  <si>
+    <t>Определены требования к проведению испытаний опытно-промышленного образца. ПМИ отражают весь объем испытаний по функциям, интерфейсу с внешними устройствами, внешними условиями, необходимой и достаточной их комбинацией, а также предоставляют процедуры для точности и достоверности интерпретации полученных результатов.</t>
+  </si>
+  <si>
+    <t>По результатам проведенных испытаний уточнена спецификация на продукт/технологию как систему.</t>
+  </si>
+  <si>
+    <t>Представлена конфигурация оборудования для создания производственной линии для выпуска продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Определены требования к испытанию полнофункционального образца. ПМИ для проведения испытаний удовлетворяют требованиям Владельца продукта, ГОСТ, ГОСТ Р, ПНСТ по полноте и объему проведения испытаний.</t>
+  </si>
+  <si>
+    <t>По результатам проведенных испытаний уточнена спецификация на продукт/технологи как систему.</t>
+  </si>
+  <si>
+    <t>Дизайн и форма продукта/технологии соответствуют конечной системе.</t>
+  </si>
+  <si>
+    <t>Разработана РКД для организации серийного выпуска продукта/технологии в соответствии со стандартами.</t>
+  </si>
+  <si>
+    <t>Конструкторская документации корректируется по ранее утвержденному регламенту внесения изменений.</t>
+  </si>
+  <si>
+    <t>Выпущен полный комплект эксплуатационной документации.</t>
+  </si>
+  <si>
+    <t>Инженерные работы и доработки направлены на улучшение качества и снижение себестоимости.</t>
+  </si>
+  <si>
+    <t>Определены требуемые компетенции в проектной команде, необходимые для выполнения проекта до уровня зрелости инновационного продукта/технологии к внедрению в ОАО «РЖД», равного 3.</t>
+  </si>
+  <si>
+    <t>Определены требуемые и доступные ресурсы.</t>
+  </si>
+  <si>
+    <t>Подтвержден научно-технический задел проектной команды Исполнителя по тематике проекта.</t>
+  </si>
+  <si>
+    <t>Подтверждено, что проект соответствует направлениям плана НТР ОАО «РЖД», а также условиям, предъявляемым к их планированию и выполнению.</t>
+  </si>
+  <si>
+    <t>Проведено обоснование основных технико-экономических показателей для выполнения проекта до уровня зрелости инновационного продукта/технологии к внедрению в ОАО «РЖД», равного 3.</t>
+  </si>
+  <si>
+    <t>Разработан рабочий план (задачи, мероприятия, соответствующая инфраструктура, средства демонстрации и их доступность, ресурсы).</t>
+  </si>
+  <si>
+    <t>Определен перечень вовлеченных отделов Исполнителя.</t>
+  </si>
+  <si>
+    <t>Согласованы условия совместной работы/использования результатов. Установлен интерес и налажена коммуникация с потенциальным Владельцем продукта (Заказчиками) и партнерами.</t>
+  </si>
+  <si>
+    <t>Условия взаимодействия легализованы и оформлены в виде соглашений/договоров/протоколов.</t>
+  </si>
+  <si>
+    <t>Определена проектная команда, включая руководителя, разработчиков, тестировщиков, технических писателей и т.д.</t>
+  </si>
+  <si>
+    <t>Определены потенциальные контрагенты, обсуждены базовые условия сотрудничества.</t>
+  </si>
+  <si>
+    <t>Проведена проверка вариантов предполагаемого практического использования продукта/технологии, представленных в техническом предложении, на патентную чистоту и конкурентоспособность.</t>
+  </si>
+  <si>
+    <t>Проведен анализ наличия базовых средств производства у Исполнителя/партнера – потенциального производителя.</t>
+  </si>
+  <si>
+    <t>Принято решение: изготовление/покупка/аутсорсинг.</t>
+  </si>
+  <si>
+    <t>Подготовлены проекты базовых соглашений с партнерами по конкретизации условий сотрудничества.</t>
+  </si>
+  <si>
+    <t>Подготовлен проект технического плана развития до коммерциализации и внедрения.</t>
+  </si>
+  <si>
+    <t>Сформулирован предварительный план по снижению негативного воздействия технических рисков.</t>
+  </si>
+  <si>
+    <t>Подготовлен проект финансового плана, определены основные финансовые показатели.</t>
+  </si>
+  <si>
+    <t>Подтверждены необходимые компетенции Исполнителя.</t>
+  </si>
+  <si>
+    <t>Подтверждено наличие базовых средств производства у исполнителя/партнера. Решен вопрос по недостающим мощностям.</t>
+  </si>
+  <si>
+    <t>Определены кандидаты на поставку материалов и компонентов.</t>
+  </si>
+  <si>
+    <t>Согласованы базовые соглашения с партнерами по конкретизации условий сотрудничества.</t>
+  </si>
+  <si>
+    <t>Подготовлен организационный план до коммерциализации и внедрения.</t>
+  </si>
+  <si>
+    <t>Подготовлен финансовый план, определены основные финансовые показатели.</t>
+  </si>
+  <si>
+    <t>Заявки на РИД поданы в патентное ведомство.</t>
+  </si>
+  <si>
+    <t>Определены возможности модификации существующего / приобретения недостающего оборудования.</t>
+  </si>
+  <si>
+    <t>Определены базовые поставщики и условия поставки.</t>
+  </si>
+  <si>
+    <t>С учетом испытаний полномасштабного образца уточнены финансовый план и основные финансовые показатели.</t>
+  </si>
+  <si>
+    <t>Объем и состав используемых технологических платформ и процессов согласованы с Владельцем продукта (Заказчиками).</t>
+  </si>
+  <si>
+    <t>Модифицирован план и программа выпуска продукта (сборочная линия, методы и инструменты, процессы, материалы, оборудование, ПО) в соответствии с результатами испытаний полнофункционального образца.</t>
+  </si>
+  <si>
+    <t>Обоснована стратегия надежных поставок и ценовой политики.</t>
+  </si>
+  <si>
+    <t>С учетом испытаний полнофункционального образца уточнены финансовый план и основные финансовые показатели.</t>
+  </si>
+  <si>
+    <t>Начаты разработка учебных планов и программ по обучению персонала.</t>
+  </si>
+  <si>
+    <t>Подтверждена патентная чистота продукта/технологии. Оформлены необходимые распорядительные документы (приказы, распоряжения и др.) о введении режима коммерческой тайны на секреты производства (ноу-хау).</t>
+  </si>
+  <si>
+    <t>Изданы организационно-распорядительные документы для проведения испытаний опытно-промышленного образца. Испытания обеспечены квалифицированными кадрами.</t>
+  </si>
+  <si>
+    <t>Проведён анализ выполнения календарного плана проекта в системе управления проектами, который показал, что риски несвоевременного выполнения проекта минимальны – уточнена декомпозиция работ, уточнены сроки, все работы обеспечены ресурсами.</t>
+  </si>
+  <si>
+    <t>Заключены долгосрочные соглашения с партнерами и поставщиками материалов, комплектующих и оборудования для гарантии стабильных поставок.</t>
+  </si>
+  <si>
+    <t>Осуществляется комплекс мероприятий по общению с лицами, принимающими решения у Владельца продукта.</t>
+  </si>
+  <si>
+    <t>Владелец продукта подтвердил готовность организовать проведение испытаний, измерений и обработку результатов.</t>
+  </si>
+  <si>
+    <t>Подтверждено, что риски, связанные с интеллектуальной собственностью, снижены до минимальных значений.</t>
+  </si>
+  <si>
+    <t>Подтверждено, что уровень проектной команды соответствует сложности и статусу проекта.</t>
+  </si>
+  <si>
+    <t>Все производственные КД для создания полнофункционального образца согласованы изготовителем (промышленным) и Владельцем продукта.</t>
+  </si>
+  <si>
+    <t>Все технологические процессы изготовления полнофункционального образца обеспечены подготовленным персоналом. Проведено обучение и сертификация персонала.</t>
+  </si>
+  <si>
+    <t>Организованы процедуры контроля безотказной работы и анализа авариных ситуаций и сбоев.</t>
+  </si>
+  <si>
+    <t>Реализуется программа обучения специалистов Владельца продукта.</t>
+  </si>
+  <si>
+    <t>Организована система сопровождения продукта: претензии, консультации и другая поддержка Владельца продукта.</t>
+  </si>
+  <si>
+    <t>Проведены процедуры добровольной сертификации.</t>
+  </si>
+  <si>
+    <t>Внедрены и описаны регулярные бизнес-процессы производства и модернизации продукта.</t>
+  </si>
+  <si>
+    <t>Внедрены и описаны регулярные бизнес-процессы сервиса.</t>
+  </si>
+  <si>
+    <t>Внедрены и описаны регулярные бизнес-процессы продаж.</t>
+  </si>
+  <si>
+    <t>Организовано проведение регулярных эксплуатационных испытаний.</t>
+  </si>
+  <si>
+    <t>Утвержден регламент выявления и устранения дефектов в ходе промышленной эксплуатации.</t>
+  </si>
+  <si>
+    <t>Вся КД утверждена изготовителем.</t>
+  </si>
+  <si>
+    <t>Организационно-штатная структура изготовителя приведена в соответствие с бизнес-моделью.</t>
+  </si>
+  <si>
+    <t>Завершена сертификация продукта/технологии.</t>
+  </si>
+  <si>
+    <t>На основе анализа ключевых характеристик продукта/технологии, обеспечивающих конкурентные преимущества, определены основные потребительские характеристики нового продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Определен перечень потребителей (Заказчики), способных платить за разрабатываемую технологию/использование результатов/услуг/продуктов.</t>
+  </si>
+  <si>
+    <t>Проведен анализ конкурентов (цены, объемы, сильные/слабые стороны).</t>
+  </si>
+  <si>
+    <t>Проведена оценка вероятности положительного денежного потока от реализации результатов проекта в долгосрочной и среднесрочной перспективах.</t>
+  </si>
+  <si>
+    <t>Получена оценка рынка PAM (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном  и стоимостном выражениях.</t>
+  </si>
+  <si>
+    <t>Проведены предварительные маркетинговые исследования, свидетельствующие о востребованности предложенного технического решения потенциальными потребителями продукта/технологии (в том числе, потенциальным Владельцем продукта, Заказчиками).</t>
+  </si>
+  <si>
+    <t>Определены аналоги продукта/технологии и их производители, а также уровень их технологической готовности, в т.ч. его динамика.</t>
+  </si>
+  <si>
+    <t>Сделан предварительный прогноз совокупных затрат, с которыми связано использование продукта/технологии на протяжении всего срока его эксплуатации (стоимость единицы продукта, стоимость развертывания и обслуживания, стоимость утилизации и т.д.). Показано, что полная стоимость владения продуктом/технологией приемлема для потенциальных потребителей (Заказчиков).</t>
+  </si>
+  <si>
+    <t>Проведено сегментирование рынка в отношении потребительских предпочтений.</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка TAM – объем рынка для клиентов на целевом рынке, которые нуждаются (не обязательно могут себе это позволить) в продуктах или услугах, находящихся в той же категории продуктов/услуг, что и разрабатываемый продукт/технология.</t>
+  </si>
+  <si>
+    <t>Уточнены предварительные маркетинговые исследования. Определены проблемы потребителей, которые не могут быть решены существующими на рынке продуктами/технологиями.</t>
+  </si>
+  <si>
+    <t>Проведена предварительная упрощенная оценка себестоимости изготовления продукции, показано, что ее величина является приемлемой для выпуска продукта по предложенной промышленной технологии.</t>
+  </si>
+  <si>
+    <t>Уточнен прогноз совокупных затрат, с которыми связано использование технологии/продукта/услуги на протяжении срока его использования, включая утилизацию.</t>
+  </si>
+  <si>
+    <t>Предложена модель ценообразования.</t>
+  </si>
+  <si>
+    <t>Установлена обратная связь с потенциальными потребителями, выявлены их предпочтения в части характеристик продукта/технологии, сроков появления продукта/технологии на рынке и его цены.</t>
+  </si>
+  <si>
+    <t>Уточнены сегменты рынка TAM, выявлены ниши рынка, на которые целесообразно ориентироваться при разработке технологии/продукта/услуги.</t>
+  </si>
+  <si>
+    <t>Детализирован перечень производителей, продукция которых решает те же проблемы, что и создаваемый продукт/технология. Анализ конкурентов проведен после подтверждения в ходе испытаний лабораторного образца/модели достижимости основных характеристик создаваемого продукта/технологии. Показано, что подтвержденные в ходе испытаний характеристики дают новое качество по сравнению с доступными на рынке продуктами.</t>
+  </si>
+  <si>
+    <t>Уточнены способы потребления продукта/технологии и сегменты рынка для каждого способа потребления. Для каждого сегмента рынка проведена адаптация модели ценообразования, причем показано, что стоимость создаваемого продукта/технологии не будет выше стоимости продуктов/технологий-аналогов.</t>
+  </si>
+  <si>
+    <t>Установлена обратная связь с потенциальными потребителями (Владельцем продукта, другими Заказчиками), получено подтверждение их заинтересованности в появлении в ранее установленные сроки продукта/технологии с подтвержденными в ходе испытаний характеристиками и уточненной ценой.</t>
+  </si>
+  <si>
+    <t>Разработан предварительный план продаж с детализацией по регионам и клиентам.</t>
+  </si>
+  <si>
+    <t>Начато формирование программы продвижения нового продукта/технологии на рынок.</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка SAM – клиентский сегмент или объем рынка (доля от ТАМ), в рамках которых потребитель готов купить продукты или услуги такие же, как разрабатываемый продукт/технология.</t>
+  </si>
+  <si>
+    <t>Проведен сравнительный/конкурентный анализ разрабатываемой технологии продукта с конкурентными продуктами.</t>
+  </si>
+  <si>
+    <t>Получены отзывы от потенциальных потребителей (Владельца продукта, Заказчиков) о полезности продукта с подтвержденными в ходе испытаний экспериментального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности  создаваемого продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Определена бизнес-модель: кто спонсор, кто покупатель B2B, B2C, кто продавец, какова организация поддержки продукта.</t>
+  </si>
+  <si>
+    <t>Сделана предварительная оценка прибыли, которая может быть получена в случае производства и реализации разрабатываемой технологии/продукта по выбранным перспективным способам применения.</t>
+  </si>
+  <si>
+    <t>Уточнена модель ценообразования. Определена конкурентоспособная цена на технологию в соответствии c бизнес-моделью, т.е. цена, которая учитывает требования по уровню рентабельности технологии/продукта с учетом конкурентного окружения создаваемого продукта/технологии и отвечает потребностям Владельца продукта (Заказчиков).</t>
+  </si>
+  <si>
+    <t>Получены отзывы от потенциальных потребителей (Владельца продукта, других Заказчиков) о полезности продукта с подтвержденными в ходе испытаний полнофункционального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности создаваемого продукта/технологии.</t>
+  </si>
+  <si>
+    <t>По результатам анализа результатов испытаний полнофункционального образца и анализа выявленных предпочтений потребителей уточнены критерии сегментирования рынка, обновлены сегменты рынка , а также ниши рынка, на которые целесообразно ориентироваться при разработке продукта/технологии/услуги.</t>
+  </si>
+  <si>
+    <t>Уточнена разработанная на предыдущем уровне бизнес-модель как концепция компании, направленная на получение дохода.</t>
+  </si>
+  <si>
+    <t>Уточнена прибыль от коммерциализации создаваемого продукта/технологии по уточненным сегментам рынка и перспективным способам применения.</t>
+  </si>
+  <si>
+    <t>Осуществлена поставка ограниченному кругу потребителей (в первую очередь – Владельцу продукта, а также другим Заказчикам) опытной партии продукта/технологии для испытаний.</t>
+  </si>
+  <si>
+    <t>Получены отзывы от расширенного круга потенциальных потребителей о полезности продукта с подтвержденными в ходе испытаний полнофункционального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности создаваемого продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка SOM (Serviceable Obtainable Market) – объем рынка, который производящая продукт/технологию компания намерена и способна занять, учитывая его стратегию развития и действия конкурентов, с помощью выбранных каналов продаж.</t>
+  </si>
+  <si>
+    <t>Уточнена основная структура цены продукта/технологии для коммерциализации (производство, комплектующие, продажи, логистика, сервисное обслуживание).</t>
+  </si>
+  <si>
+    <t>Уточнена бизнес-модель, а также конкретизирована ценовая политика для разных сегментов рынка на основе разработанной ранее модели ценообразования и уточненной бизнес-модели.</t>
+  </si>
+  <si>
+    <t>Разработана модель продвижения и послепродажного обслуживания.</t>
+  </si>
+  <si>
+    <t>Разработаны прайс-листы и система скидок по сегментам рынка.</t>
+  </si>
+  <si>
+    <t>Проведены опытные продажи продукта/технологии по утвержденным каналам распространения в рамках бизнес-модели.</t>
+  </si>
+  <si>
+    <t>Получены отзывы от расширенного круга покупателей о полезности продукта/технологии с достигнутыми технико-экономическими характеристиками. Сделан вывод о полезности созданного продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Протестирована модель продвижения и послепродажного обслуживания. Начата реализация маркетингового плана.</t>
+  </si>
+  <si>
+    <t>Протестированы каналы распространения продукта в различных рыночных сегментах, уточнены прайс-листы, представлены для анализа отчеты о продажах по собственным и партнерским каналам.</t>
+  </si>
+  <si>
+    <t>На основе утвержденных регламентов осуществляется мониторинг и анализ рынков, потребителей (в том числе – Владельца продукта, других Заказчиков), конкурирующих продуктов и технологий.</t>
+  </si>
+  <si>
+    <t>Утверждена маркетинговая стратегия компании как комплекс мероприятий, направленных на улучшение производства и улучшения продукта/технологии и его/ее сбыта.</t>
+  </si>
+  <si>
+    <t>Разработаны процедуры проведения исследования удовлетворённости потребителей, на основе анализа которых уточняются требования к продукту/технологии, которые могут быть учтены в текущей версии или разрабатываются требования к новой версии продукта/технологии.</t>
+  </si>
+  <si>
+    <t>Подтверждено наличие бюджета для производства, продаж, маркетинга, сервисного обслуживания.</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,30 +1212,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>253</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1248,11 +1248,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>253</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1265,11 +1265,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>253</v>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1282,11 +1282,11 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>254</v>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1299,11 +1299,11 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>254</v>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1316,11 +1316,11 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>254</v>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1333,11 +1333,11 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1350,11 +1350,11 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1367,11 +1367,11 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1384,11 +1384,11 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1401,11 +1401,11 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1418,11 +1418,11 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>255</v>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1435,11 +1435,11 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>255</v>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1452,11 +1452,11 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>255</v>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1469,11 +1469,11 @@
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>256</v>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1486,11 +1486,11 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>256</v>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1503,11 +1503,11 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>256</v>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1520,11 +1520,11 @@
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>256</v>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -1537,11 +1537,11 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>256</v>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -1554,11 +1554,11 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>256</v>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
@@ -1571,11 +1571,11 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>257</v>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1588,11 +1588,11 @@
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>257</v>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -1605,11 +1605,11 @@
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>257</v>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -1622,11 +1622,11 @@
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>257</v>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -1639,11 +1639,11 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>257</v>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1656,11 +1656,11 @@
       <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>258</v>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1673,11 +1673,11 @@
       <c r="A28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>258</v>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -1690,11 +1690,11 @@
       <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>258</v>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -1707,11 +1707,11 @@
       <c r="A30" s="2">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>258</v>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -1724,11 +1724,11 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>258</v>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2">
         <v>5</v>
@@ -1741,11 +1741,11 @@
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>258</v>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
@@ -1758,11 +1758,11 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>259</v>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1775,11 +1775,11 @@
       <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>259</v>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -1792,11 +1792,11 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>259</v>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -1809,11 +1809,11 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>259</v>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -1826,11 +1826,11 @@
       <c r="A37" s="2">
         <v>8</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>259</v>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -1843,11 +1843,11 @@
       <c r="A38" s="2">
         <v>9</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>268</v>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1860,11 +1860,11 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>260</v>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -1877,11 +1877,11 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>260</v>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1892,6 +1892,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1899,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,30 +1911,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1946,11 +1947,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1963,11 +1964,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1980,11 +1981,11 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1997,11 +1998,11 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2014,11 +2015,11 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2031,11 +2032,11 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2048,11 +2049,11 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2065,11 +2066,11 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -2082,11 +2083,11 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2099,11 +2100,11 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2116,11 +2117,11 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -2133,11 +2134,11 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -2150,11 +2151,11 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -2167,11 +2168,11 @@
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2184,11 +2185,11 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2201,11 +2202,11 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2218,11 +2219,11 @@
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -2235,11 +2236,11 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -2252,11 +2253,11 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
@@ -2269,11 +2270,11 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2286,11 +2287,11 @@
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2303,11 +2304,11 @@
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2320,11 +2321,11 @@
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -2337,11 +2338,11 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2354,11 +2355,11 @@
       <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -2371,11 +2372,11 @@
       <c r="A28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -2388,11 +2389,11 @@
       <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -2405,11 +2406,11 @@
       <c r="A30" s="2">
         <v>8</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2422,11 +2423,11 @@
       <c r="A31" s="2">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -2439,11 +2440,11 @@
       <c r="A32" s="2">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2456,11 +2457,11 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -2473,11 +2474,11 @@
       <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -2490,11 +2491,11 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D35" s="2">
         <v>6</v>
@@ -2507,11 +2508,11 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -2524,11 +2525,11 @@
       <c r="A37" s="2">
         <v>9</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>138</v>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2541,11 +2542,11 @@
       <c r="A38" s="2">
         <v>9</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>138</v>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -2558,11 +2559,11 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>138</v>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -2575,11 +2576,11 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>138</v>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -2598,37 +2599,37 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2641,11 +2642,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2658,11 +2659,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -2675,11 +2676,11 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>144</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2692,11 +2693,11 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2709,11 +2710,11 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>144</v>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2726,11 +2727,11 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>144</v>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -2743,11 +2744,11 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>144</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2760,11 +2761,11 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>148</v>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2777,11 +2778,11 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>148</v>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -2794,11 +2795,11 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>148</v>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2811,11 +2812,11 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>148</v>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -2828,11 +2829,11 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>150</v>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2845,11 +2846,11 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>150</v>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -2862,11 +2863,11 @@
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>150</v>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -2879,11 +2880,11 @@
       <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>150</v>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -2896,11 +2897,11 @@
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>150</v>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2913,11 +2914,11 @@
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>150</v>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -2930,11 +2931,11 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2947,11 +2948,11 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2964,11 +2965,11 @@
       <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -2981,11 +2982,11 @@
       <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -2998,11 +2999,11 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -3015,11 +3016,11 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -3032,11 +3033,11 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3049,11 +3050,11 @@
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -3066,11 +3067,11 @@
       <c r="A28" s="2">
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3083,11 +3084,11 @@
       <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -3100,11 +3101,11 @@
       <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -3117,11 +3118,11 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>163</v>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3134,11 +3135,11 @@
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>163</v>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -3151,11 +3152,11 @@
       <c r="A33" s="2">
         <v>7</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>163</v>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -3168,11 +3169,11 @@
       <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>163</v>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -3185,11 +3186,11 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>165</v>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3202,11 +3203,11 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -3219,11 +3220,11 @@
       <c r="A37" s="2">
         <v>8</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>165</v>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
@@ -3236,11 +3237,11 @@
       <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>165</v>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -3253,11 +3254,11 @@
       <c r="A39" s="2">
         <v>8</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>165</v>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="D39" s="2">
         <v>5</v>
@@ -3270,11 +3271,11 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>169</v>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -3287,11 +3288,11 @@
       <c r="A41" s="2">
         <v>9</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>169</v>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -3304,11 +3305,11 @@
       <c r="A42" s="2">
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>169</v>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -3328,37 +3329,37 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3371,11 +3372,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -3388,11 +3389,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -3405,11 +3406,11 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3422,11 +3423,11 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -3439,11 +3440,11 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -3456,11 +3457,11 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3473,11 +3474,11 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3490,11 +3491,11 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -3507,11 +3508,11 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -3524,11 +3525,11 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -3541,8 +3542,8 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>179</v>
@@ -3558,8 +3559,8 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>180</v>
@@ -3575,11 +3576,11 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3592,11 +3593,11 @@
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -3609,11 +3610,11 @@
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -3626,11 +3627,11 @@
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -3643,11 +3644,11 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -3660,11 +3661,11 @@
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
@@ -3677,11 +3678,11 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3694,11 +3695,11 @@
       <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -3711,11 +3712,11 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -3728,11 +3729,11 @@
       <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -3745,11 +3746,11 @@
       <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -3762,11 +3763,11 @@
       <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -3779,11 +3780,11 @@
       <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="D27" s="2">
         <v>7</v>
@@ -3796,11 +3797,11 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>188</v>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3813,11 +3814,11 @@
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>188</v>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -3830,11 +3831,11 @@
       <c r="A30" s="2">
         <v>5</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>188</v>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -3847,11 +3848,11 @@
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>188</v>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
@@ -3864,11 +3865,11 @@
       <c r="A32" s="2">
         <v>5</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>188</v>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="D32" s="2">
         <v>5</v>
@@ -3881,11 +3882,11 @@
       <c r="A33" s="2">
         <v>6</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -3898,11 +3899,11 @@
       <c r="A34" s="2">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -3915,11 +3916,11 @@
       <c r="A35" s="2">
         <v>6</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -3932,11 +3933,11 @@
       <c r="A36" s="2">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -3949,11 +3950,11 @@
       <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -3966,11 +3967,11 @@
       <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -3983,11 +3984,11 @@
       <c r="A39" s="2">
         <v>7</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>195</v>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -4000,11 +4001,11 @@
       <c r="A40" s="2">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>195</v>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -4017,11 +4018,11 @@
       <c r="A41" s="2">
         <v>7</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>195</v>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -4034,11 +4035,11 @@
       <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>195</v>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -4051,11 +4052,11 @@
       <c r="A43" s="2">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>195</v>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
@@ -4068,11 +4069,11 @@
       <c r="A44" s="2">
         <v>7</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>195</v>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D44" s="2">
         <v>6</v>
@@ -4085,11 +4086,11 @@
       <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>195</v>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2">
         <v>7</v>
@@ -4102,11 +4103,11 @@
       <c r="A46" s="2">
         <v>8</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>17</v>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -4119,11 +4120,11 @@
       <c r="A47" s="2">
         <v>8</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>17</v>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -4136,11 +4137,11 @@
       <c r="A48" s="2">
         <v>8</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>17</v>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -4153,11 +4154,11 @@
       <c r="A49" s="2">
         <v>8</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>17</v>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
@@ -4170,11 +4171,11 @@
       <c r="A50" s="2">
         <v>8</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>17</v>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -4187,11 +4188,11 @@
       <c r="A51" s="2">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>17</v>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
@@ -4204,11 +4205,11 @@
       <c r="A52" s="2">
         <v>9</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -4221,11 +4222,11 @@
       <c r="A53" s="2">
         <v>9</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
@@ -4238,11 +4239,11 @@
       <c r="A54" s="2">
         <v>9</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>18</v>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
@@ -4255,11 +4256,11 @@
       <c r="A55" s="2">
         <v>9</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>18</v>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D55" s="2">
         <v>4</v>
@@ -4272,11 +4273,11 @@
       <c r="A56" s="2">
         <v>9</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>18</v>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -4289,11 +4290,11 @@
       <c r="A57" s="2">
         <v>9</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>18</v>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D57" s="2">
         <v>6</v>
@@ -4306,11 +4307,11 @@
       <c r="A58" s="2">
         <v>9</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>18</v>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2">
         <v>7</v>
@@ -4323,11 +4324,11 @@
       <c r="A59" s="2">
         <v>9</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>18</v>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2">
         <v>8</v>
@@ -4345,38 +4346,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>211</v>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4389,11 +4390,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>211</v>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -4406,11 +4407,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>211</v>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -4423,11 +4424,11 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>211</v>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -4440,11 +4441,11 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>211</v>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4457,11 +4458,11 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>216</v>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4474,11 +4475,11 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>216</v>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -4491,11 +4492,11 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>216</v>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -4508,11 +4509,11 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>216</v>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -4525,11 +4526,11 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>216</v>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -4542,11 +4543,11 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4559,11 +4560,11 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -4576,11 +4577,11 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -4593,11 +4594,11 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -4610,11 +4611,11 @@
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -4627,11 +4628,11 @@
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -4644,11 +4645,11 @@
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>226</v>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -4661,11 +4662,11 @@
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>226</v>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -4678,11 +4679,11 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>226</v>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4695,11 +4696,11 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>226</v>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -4712,11 +4713,11 @@
       <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>226</v>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -4729,11 +4730,11 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>226</v>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -4746,11 +4747,11 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4763,11 +4764,11 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4780,11 +4781,11 @@
       <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -4797,11 +4798,11 @@
       <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -4814,11 +4815,11 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
@@ -4831,11 +4832,11 @@
       <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4848,11 +4849,11 @@
       <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>21</v>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -4865,11 +4866,11 @@
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -4882,11 +4883,11 @@
       <c r="A32" s="2">
         <v>6</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -4899,11 +4900,11 @@
       <c r="A33" s="2">
         <v>7</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>238</v>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4916,11 +4917,11 @@
       <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>238</v>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -4933,11 +4934,11 @@
       <c r="A35" s="2">
         <v>7</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>238</v>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -4950,11 +4951,11 @@
       <c r="A36" s="2">
         <v>7</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>238</v>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -4967,11 +4968,11 @@
       <c r="A37" s="2">
         <v>7</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>238</v>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -4984,11 +4985,11 @@
       <c r="A38" s="2">
         <v>7</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>238</v>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -5001,11 +5002,11 @@
       <c r="A39" s="2">
         <v>8</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5018,11 +5019,11 @@
       <c r="A40" s="2">
         <v>8</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>22</v>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -5035,11 +5036,11 @@
       <c r="A41" s="2">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -5052,11 +5053,11 @@
       <c r="A42" s="2">
         <v>8</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>22</v>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -5069,11 +5070,11 @@
       <c r="A43" s="2">
         <v>9</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>23</v>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -5086,11 +5087,11 @@
       <c r="A44" s="2">
         <v>9</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5103,11 +5104,11 @@
       <c r="A45" s="2">
         <v>9</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>23</v>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -5120,11 +5121,11 @@
       <c r="A46" s="2">
         <v>9</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>23</v>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -5137,11 +5138,11 @@
       <c r="A47" s="2">
         <v>9</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>23</v>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>

--- a/data/Param_Tasks.xlsx
+++ b/data/Param_Tasks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="264">
   <si>
     <t>Определены базовые требования к производству и необходимые изменения в существующем производственном процессе</t>
   </si>
@@ -104,9 +104,6 @@
     <t>По полупромышленной технологии изготовлен и испытан экспериментальный образец в реальном масштабе, проведена эмуляция основных внешних условий</t>
   </si>
   <si>
-    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
-  </si>
-  <si>
     <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях реальной эксплуатации в составе конечного продукта</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Риски невыполнения проекта в установленные сроки снижены до минимальных значений. Владелец продукта готов провести испытания опытно-промышленного образца в своей системе</t>
   </si>
   <si>
-    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики.  Оценен общий потенциал рынка (PAM)</t>
-  </si>
-  <si>
     <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/ технологией</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>Подготовлена программа и методика испытаний полнофункционального мелкосерийного образца в ожидаемых реальных условиях эксплуатации.</t>
   </si>
   <si>
-    <t>Испытания полнофункционального образца на стенде/в реальных условиях подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Обосновано, что технические риски снижены до минимальных значений. Экспериментально подтверждены критические характеристики, которые обеспечивают ключевые преимущества.</t>
-  </si>
-  <si>
     <t>Проводятся эксплуатационные испытания в реальных условиях эксплуатации, результаты соответствуют требованиям к продукту/технологии и его эксплуатационным характеристикам.</t>
   </si>
   <si>
@@ -401,12 +392,6 @@
     <t>Разработан регламент выявления дефектов  и их устранения в производстве.</t>
   </si>
   <si>
-    <t>Осуществляются бесперебойные поставки материалов и оборудования. Снижены до минимальных значений риски производства (например, эксклюзивные поставщики и т.п.)</t>
-  </si>
-  <si>
-    <t>Производственные процессы и технологии обеспечивают необходимый уровень производительности и прибыльности. При необходимости производится масштабирование производства.</t>
-  </si>
-  <si>
     <t>Определены компоненты и связи между компонентами внутри продукта и с внешними устройствами, c пользователем продукта.</t>
   </si>
   <si>
@@ -437,9 +422,6 @@
     <t>Сформулированы дополнительные требования к макету.</t>
   </si>
   <si>
-    <t>Определены ключевые факторы технических рисков, исследовано их влияние на процесс разработки.</t>
-  </si>
-  <si>
     <t>Определен состав базовых нормативных документов и требований к испытаниям, сертификации.</t>
   </si>
   <si>
@@ -473,18 +455,12 @@
     <t>Разработана спецификация и техническая документация на полнофункциональный образец.</t>
   </si>
   <si>
-    <t>Подробные чертежи 3D-дизайна и P&amp;ID  были завершены для поддержки спецификации инженерно-испытательной системы.</t>
-  </si>
-  <si>
     <t>Подготовлен проект описания и руководства пользователя.</t>
   </si>
   <si>
     <t>Технология производства (масштабирования) проверена на пилотной производственной линии.</t>
   </si>
   <si>
-    <t>Технический риск получения отрицательных результатов исследований снижен до минимальных значений.</t>
-  </si>
-  <si>
     <t>Проведена внутренняя предсертификация.</t>
   </si>
   <si>
@@ -575,9 +551,6 @@
     <t>Подготовлен проект технического плана развития до коммерциализации и внедрения.</t>
   </si>
   <si>
-    <t>Сформулирован предварительный план по снижению негативного воздействия технических рисков.</t>
-  </si>
-  <si>
     <t>Подготовлен проект финансового плана, определены основные финансовые показатели.</t>
   </si>
   <si>
@@ -632,9 +605,6 @@
     <t>Изданы организационно-распорядительные документы для проведения испытаний опытно-промышленного образца. Испытания обеспечены квалифицированными кадрами.</t>
   </si>
   <si>
-    <t>Проведён анализ выполнения календарного плана проекта в системе управления проектами, который показал, что риски несвоевременного выполнения проекта минимальны – уточнена декомпозиция работ, уточнены сроки, все работы обеспечены ресурсами.</t>
-  </si>
-  <si>
     <t>Заключены долгосрочные соглашения с партнерами и поставщиками материалов, комплектующих и оборудования для гарантии стабильных поставок.</t>
   </si>
   <si>
@@ -644,9 +614,6 @@
     <t>Владелец продукта подтвердил готовность организовать проведение испытаний, измерений и обработку результатов.</t>
   </si>
   <si>
-    <t>Подтверждено, что риски, связанные с интеллектуальной собственностью, снижены до минимальных значений.</t>
-  </si>
-  <si>
     <t>Подтверждено, что уровень проектной команды соответствует сложности и статусу проекта.</t>
   </si>
   <si>
@@ -704,9 +671,6 @@
     <t>Проведена оценка вероятности положительного денежного потока от реализации результатов проекта в долгосрочной и среднесрочной перспективах.</t>
   </si>
   <si>
-    <t>Получена оценка рынка PAM (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном  и стоимостном выражениях.</t>
-  </si>
-  <si>
     <t>Проведены предварительные маркетинговые исследования, свидетельствующие о востребованности предложенного технического решения потенциальными потребителями продукта/технологии (в том числе, потенциальным Владельцем продукта, Заказчиками).</t>
   </si>
   <si>
@@ -776,9 +740,6 @@
     <t>Получены отзывы от потенциальных потребителей (Владельца продукта, других Заказчиков) о полезности продукта с подтвержденными в ходе испытаний полнофункционального образца продукта/технологии технико-экономическими характеристиками. Сделан вывод о полезности создаваемого продукта/технологии.</t>
   </si>
   <si>
-    <t>По результатам анализа результатов испытаний полнофункционального образца и анализа выявленных предпочтений потребителей уточнены критерии сегментирования рынка, обновлены сегменты рынка , а также ниши рынка, на которые целесообразно ориентироваться при разработке продукта/технологии/услуги.</t>
-  </si>
-  <si>
     <t>Уточнена разработанная на предыдущем уровне бизнес-модель как концепция компании, направленная на получение дохода.</t>
   </si>
   <si>
@@ -828,6 +789,30 @@
   </si>
   <si>
     <t>Подтверждено наличие бюджета для производства, продаж, маркетинга, сервисного обслуживания.</t>
+  </si>
+  <si>
+    <t>Изготовлен полнофункциональный образец на пилотной производствен-ной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
+  </si>
+  <si>
+    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики. Оценен общий потенциал рынка (PAM)</t>
+  </si>
+  <si>
+    <t>Испытания полнофункционального образца на стенде/в реальных условиях подтверждают достижимость планируемых диапазонов изменения ключевых характеристик. Экспериментально подтверждены критические характеристики, которые обеспечивают ключевые преимущества.</t>
+  </si>
+  <si>
+    <t>Осуществляются бесперебойные поставки материалов и оборудования. Производственные процессы и технологии обеспечивают необходимый уровень производительности и прибыльности. При необходимости производится масштабирование производства.</t>
+  </si>
+  <si>
+    <t>Подробные чертежи 3D-дизайна и P&amp;ID были завершены для поддержки спецификации инженерно-испытательной системы.</t>
+  </si>
+  <si>
+    <t>Проведён анализ выполнения календарного плана проекта в системе управления проектами – уточнена декомпозиция работ, уточнены сроки, все работы обеспечены ресурсами.</t>
+  </si>
+  <si>
+    <t>Получена оценка рынка PAM (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном и стоимостном выражениях.</t>
+  </si>
+  <si>
+    <t>По результатам анализа результатов испытаний полнофункционального образца и анализа выявленных предпочтений потребителей уточнены критерии сегментирования рынка, обновлены сегменты рынка, а также ниши рынка, на которые целесообразно ориентироваться при разработке продукта/технологии/услуги.</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1186,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1235,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1252,7 +1237,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1269,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1286,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1303,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1320,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1337,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1354,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1371,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1388,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1405,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1422,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -1439,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1456,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1473,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1490,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1507,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1524,7 +1509,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -1541,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -1572,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1589,10 +1574,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -1606,10 +1591,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -1623,10 +1608,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -1640,10 +1625,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1657,10 +1642,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1674,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -1691,10 +1676,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -1708,10 +1693,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -1725,10 +1710,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2">
         <v>5</v>
@@ -1742,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
@@ -1759,10 +1744,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1776,10 +1761,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -1793,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -1810,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -1827,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -1844,10 +1829,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1861,10 +1846,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -1878,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1898,15 +1883,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1934,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1951,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1968,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1985,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2002,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2019,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2036,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2053,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2070,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -2087,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2104,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2121,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -2138,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -2155,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -2172,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2189,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2206,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2223,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -2240,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -2257,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
@@ -2271,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2288,10 +2275,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -2305,10 +2292,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2322,10 +2309,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -2339,10 +2326,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2356,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -2373,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -2390,10 +2377,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -2407,10 +2394,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2424,10 +2411,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -2441,10 +2428,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2458,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -2475,10 +2462,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -2492,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D35" s="2">
         <v>6</v>
@@ -2509,10 +2496,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -2526,10 +2513,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2543,10 +2530,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -2560,49 +2547,36 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -2629,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2646,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2663,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -2680,7 +2654,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2697,7 +2671,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -2714,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -2731,7 +2705,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -2748,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2765,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2782,7 +2756,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -2799,7 +2773,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2810,16 +2784,16 @@
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2833,10 +2807,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2850,10 +2824,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2867,10 +2841,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2884,10 +2858,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2901,10 +2875,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2912,16 +2886,16 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2935,10 +2909,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -2952,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2969,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2986,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3003,10 +2977,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -3014,16 +2988,16 @@
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -3034,13 +3008,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3051,13 +3025,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3068,13 +3042,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3082,16 +3056,16 @@
     </row>
     <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3099,16 +3073,16 @@
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3119,13 +3093,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3136,13 +3110,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -3150,16 +3124,16 @@
     </row>
     <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3167,16 +3141,16 @@
     </row>
     <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D34" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3187,13 +3161,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3204,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3221,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3235,16 +3209,16 @@
     </row>
     <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3252,16 +3226,16 @@
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3272,49 +3246,15 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="2">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3326,13 +3266,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -3356,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3373,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -3390,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -3407,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -3424,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -3441,10 +3384,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -3461,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3478,7 +3421,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3495,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -3512,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -3529,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -3546,7 +3489,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -3560,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -3577,10 +3520,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -3594,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -3611,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -3628,10 +3571,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -3645,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -3659,16 +3602,16 @@
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -3679,13 +3622,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -3696,13 +3639,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -3713,13 +3656,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -3730,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -3747,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -3764,13 +3707,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3778,16 +3721,16 @@
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -3798,13 +3741,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3815,13 +3758,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3832,13 +3775,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3849,13 +3792,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3863,16 +3806,16 @@
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -3886,10 +3829,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3903,10 +3846,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3920,10 +3863,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3937,10 +3880,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3954,10 +3897,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3965,16 +3908,16 @@
     </row>
     <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D38" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3985,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -4002,13 +3945,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -4019,13 +3962,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -4036,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -4053,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -4067,16 +4010,16 @@
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D44" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -4084,16 +4027,16 @@
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D45" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -4107,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -4124,10 +4067,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -4141,10 +4084,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -4158,10 +4101,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -4169,16 +4112,16 @@
     </row>
     <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D50" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -4186,16 +4129,16 @@
     </row>
     <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D51" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -4209,10 +4152,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -4226,10 +4169,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -4243,10 +4186,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -4260,10 +4203,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D55" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -4277,10 +4220,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -4294,46 +4237,12 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D57" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="2">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="2">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4347,10 +4256,13 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -4374,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4391,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -4408,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -4425,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -4442,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4459,10 +4371,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -4476,10 +4388,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -4493,10 +4405,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -4510,10 +4422,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -4527,10 +4439,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -4544,10 +4456,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4561,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -4578,10 +4490,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -4595,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -4612,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -4629,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -4646,10 +4558,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -4663,10 +4575,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -4680,10 +4592,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -4697,10 +4609,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -4714,10 +4626,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -4731,10 +4643,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -4748,10 +4660,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -4765,10 +4677,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -4782,10 +4694,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -4799,10 +4711,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -4816,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
@@ -4833,10 +4745,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -4850,10 +4762,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -4867,10 +4779,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -4884,10 +4796,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -4904,7 +4816,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4921,7 +4833,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -4938,7 +4850,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -4955,7 +4867,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -4972,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -4989,7 +4901,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -5003,10 +4915,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -5020,10 +4932,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -5037,10 +4949,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -5054,10 +4966,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -5071,10 +4983,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -5088,10 +5000,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5105,10 +5017,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -5122,10 +5034,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -5139,10 +5051,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>

--- a/data/Param_Tasks.xlsx
+++ b/data/Param_Tasks.xlsx
@@ -791,9 +791,6 @@
     <t>Подтверждено наличие бюджета для производства, продаж, маркетинга, сервисного обслуживания.</t>
   </si>
   <si>
-    <t>Изготовлен полнофункциональный образец на пилотной производствен-ной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
-  </si>
-  <si>
     <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики. Оценен общий потенциал рынка (PAM)</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>По результатам анализа результатов испытаний полнофункционального образца и анализа выявленных предпочтений потребителей уточнены критерии сегментирования рынка, обновлены сегменты рынка, а также ниши рынка, на которые целесообразно ориентироваться при разработке продукта/технологии/услуги.</t>
+  </si>
+  <si>
+    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1557,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>69</v>
@@ -1574,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>70</v>
@@ -1591,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>71</v>
@@ -1608,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>72</v>
@@ -1625,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>73</v>
@@ -1798,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -2550,7 +2552,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -2960,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -3931,7 +3933,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -4286,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>212</v>
@@ -4303,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>213</v>
@@ -4320,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>214</v>
@@ -4337,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>215</v>
@@ -4354,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4765,7 +4767,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
